--- a/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
+++ b/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goo1ga\Documents\TEC\EEPROM_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barajas\Documents\bosch_eeprom\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602FBB0-3246-48DD-827D-39C62FFF61F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="0" windowWidth="24270" windowHeight="11790"/>
+    <workbookView xWindow="15180" yWindow="0" windowWidth="24270" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <r>
       <t>Purpose of the list: Collect project specific modifications in E²PROM container</t>
@@ -152,12 +153,21 @@
 BB9976
 (only allowed in case of type=datablock,plain)</t>
   </si>
+  <si>
+    <t>Id_Config__Org</t>
+  </si>
+  <si>
+    <t>TestData_07__Metadata</t>
+  </si>
+  <si>
+    <t>TestData_11__Metadata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -207,6 +217,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D3B3C"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -552,7 +568,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,10 +749,11 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1022,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1030,10 +1047,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" style="9" hidden="1" customWidth="1"/>
@@ -1356,7 +1373,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="80" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="27"/>
@@ -1379,7 +1398,9 @@
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="80" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="27"/>
@@ -1402,7 +1423,9 @@
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="80" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="27"/>
@@ -8578,7 +8601,7 @@
       <c r="U334" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:U11"/>
+  <autoFilter ref="A11:U11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A11:V11">
     <sortCondition ref="A11"/>
   </sortState>
@@ -8599,7 +8622,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O108" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"range,datablock"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8613,7 +8636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8623,7 +8646,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>

--- a/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
+++ b/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
@@ -1761,7 +1761,15 @@
         </is>
       </c>
       <c r="P24" s="28" t="n"/>
-      <c r="Q24" s="38" t="n"/>
+      <c r="Q24" s="38" t="inlineStr">
+        <is>
+          <t>description=- Component: DUMMY
+- REPROG info: use case REPROG must not be set (data must not be changed after reprogramming)!
+Sometimes the description is longer than two rows.
+Other times, there are more than three.
+In this case, it is one more than four. And could be more.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">

--- a/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
+++ b/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="History" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Checklist'!$A$11:$U$11</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Checklist'!$A$11:$S$11</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -462,7 +462,7 @@
     </xf>
     <xf borderId="0" fillId="14" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -496,9 +496,6 @@
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -579,9 +576,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -942,38 +936,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U334"/>
+  <dimension ref="A1:S334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="95" zoomScaleNormal="95">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="11"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+      <selection activeCell="B1" pane="bottomLeft" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="43.6640625"/>
-    <col customWidth="1" hidden="1" max="2" min="2" style="9" width="60.44140625"/>
-    <col customWidth="1" max="3" min="3" style="9" width="22.44140625"/>
-    <col customWidth="1" max="4" min="4" style="9" width="10.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="9" width="14"/>
-    <col customWidth="1" max="6" min="6" style="9" width="7.5546875"/>
-    <col customWidth="1" max="7" min="7" style="9" width="7.109375"/>
-    <col customWidth="1" max="8" min="8" style="9" width="13.6640625"/>
-    <col customWidth="1" max="9" min="9" style="9" width="17"/>
-    <col customWidth="1" max="10" min="10" style="9" width="9.6640625"/>
-    <col customWidth="1" max="11" min="11" style="9" width="19"/>
-    <col customWidth="1" max="12" min="12" style="9" width="14"/>
-    <col customWidth="1" max="13" min="13" style="9" width="12.5546875"/>
-    <col customWidth="1" max="14" min="14" style="9" width="16.88671875"/>
-    <col customWidth="1" max="15" min="15" style="43" width="10.44140625"/>
-    <col customWidth="1" max="16" min="16" style="11" width="21.88671875"/>
-    <col customWidth="1" max="17" min="17" style="9" width="46.109375"/>
-    <col customWidth="1" max="18" min="18" style="9" width="10.88671875"/>
-    <col customWidth="1" max="19" min="19" style="9" width="21.88671875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="9" width="86.33203125"/>
-    <col customWidth="1" max="21" min="21" style="11" width="50.88671875"/>
-    <col customWidth="1" max="252" min="22" style="9" width="11.44140625"/>
-    <col customWidth="1" max="16384" min="253" style="9" width="9.109375"/>
+    <col customWidth="1" max="1" min="1" style="9" width="40.21875"/>
+    <col customWidth="1" max="2" min="2" style="9" width="10.44140625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="9" width="14"/>
+    <col customWidth="1" max="4" min="4" style="9" width="7.5546875"/>
+    <col customWidth="1" max="5" min="5" style="9" width="7.109375"/>
+    <col customWidth="1" max="6" min="6" style="9" width="13.6640625"/>
+    <col customWidth="1" max="7" min="7" style="9" width="17"/>
+    <col customWidth="1" max="8" min="8" style="9" width="9.6640625"/>
+    <col customWidth="1" max="9" min="9" style="9" width="19"/>
+    <col customWidth="1" max="10" min="10" style="9" width="14"/>
+    <col customWidth="1" max="11" min="11" style="9" width="12.5546875"/>
+    <col customWidth="1" max="12" min="12" style="9" width="16.88671875"/>
+    <col customWidth="1" max="13" min="13" style="40" width="10.44140625"/>
+    <col customWidth="1" max="14" min="14" style="11" width="21.88671875"/>
+    <col customWidth="1" max="15" min="15" style="9" width="46.109375"/>
+    <col customWidth="1" max="16" min="16" style="9" width="10.88671875"/>
+    <col customWidth="1" max="17" min="17" style="9" width="21.88671875"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="9" width="86.33203125"/>
+    <col customWidth="1" max="19" min="19" style="11" width="50.88671875"/>
+    <col customWidth="1" max="250" min="20" style="9" width="11.44140625"/>
+    <col customWidth="1" max="16384" min="251" style="9" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -982,13 +974,13 @@
           <t>E²PROM Container Review Checklist</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
       <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>V1.0</t>
-        </is>
-      </c>
+      <c r="D1" s="5" t="n"/>
       <c r="E1" s="5" t="n"/>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>
@@ -997,11 +989,9 @@
       <c r="J1" s="5" t="n"/>
       <c r="K1" s="5" t="n"/>
       <c r="L1" s="5" t="n"/>
-      <c r="M1" s="5" t="n"/>
-      <c r="N1" s="5" t="n"/>
-      <c r="O1" s="40" t="n"/>
-      <c r="P1" s="10" t="n"/>
-      <c r="Q1" s="6" t="n"/>
+      <c r="M1" s="37" t="n"/>
+      <c r="N1" s="10" t="n"/>
+      <c r="O1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
@@ -1009,9 +999,9 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="B2" s="23" t="n"/>
-      <c r="C2" s="23" t="n"/>
-      <c r="D2" s="7" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
       <c r="E2" s="13" t="n"/>
       <c r="F2" s="13" t="n"/>
       <c r="G2" s="13" t="n"/>
@@ -1020,11 +1010,9 @@
       <c r="J2" s="13" t="n"/>
       <c r="K2" s="13" t="n"/>
       <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="41" t="n"/>
-      <c r="P2" s="14" t="n"/>
-      <c r="Q2" s="15" t="n"/>
+      <c r="M2" s="38" t="n"/>
+      <c r="N2" s="14" t="n"/>
+      <c r="O2" s="15" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
@@ -1032,13 +1020,13 @@
           <t>BB-Number</t>
         </is>
       </c>
-      <c r="B3" s="23" t="n"/>
-      <c r="C3" s="23" t="n"/>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>BB95650</t>
         </is>
       </c>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
       <c r="E3" s="13" t="n"/>
       <c r="F3" s="13" t="n"/>
       <c r="G3" s="13" t="n"/>
@@ -1047,11 +1035,9 @@
       <c r="J3" s="13" t="n"/>
       <c r="K3" s="13" t="n"/>
       <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="41" t="n"/>
-      <c r="P3" s="14" t="n"/>
-      <c r="Q3" s="15" t="n"/>
+      <c r="M3" s="38" t="n"/>
+      <c r="N3" s="14" t="n"/>
+      <c r="O3" s="15" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
@@ -1059,13 +1045,13 @@
           <t>SW-Version</t>
         </is>
       </c>
-      <c r="B4" s="23" t="n"/>
-      <c r="C4" s="23" t="n"/>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>BSS2007</t>
         </is>
       </c>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
       <c r="E4" s="13" t="n"/>
       <c r="F4" s="13" t="n"/>
       <c r="G4" s="13" t="n"/>
@@ -1074,13 +1060,11 @@
       <c r="J4" s="13" t="n"/>
       <c r="K4" s="13" t="n"/>
       <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="41" t="n"/>
-      <c r="P4" s="14" t="n"/>
-      <c r="Q4" s="15" t="n"/>
-      <c r="R4" s="16" t="n"/>
-      <c r="S4" s="9" t="inlineStr">
+      <c r="M4" s="38" t="n"/>
+      <c r="N4" s="14" t="n"/>
+      <c r="O4" s="15" t="n"/>
+      <c r="P4" s="16" t="n"/>
+      <c r="Q4" s="9" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
@@ -1092,9 +1076,9 @@
           <t>Responsible</t>
         </is>
       </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="8" t="n"/>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
       <c r="E5" s="18" t="n"/>
       <c r="F5" s="18" t="n"/>
       <c r="G5" s="18" t="n"/>
@@ -1103,20 +1087,18 @@
       <c r="J5" s="18" t="n"/>
       <c r="K5" s="18" t="n"/>
       <c r="L5" s="18" t="n"/>
-      <c r="M5" s="18" t="n"/>
-      <c r="N5" s="18" t="n"/>
-      <c r="O5" s="42" t="n"/>
-      <c r="P5" s="19" t="n"/>
-      <c r="Q5" s="20" t="n"/>
-      <c r="R5" s="21" t="n"/>
-      <c r="S5" s="9" t="inlineStr">
+      <c r="M5" s="39" t="n"/>
+      <c r="N5" s="19" t="n"/>
+      <c r="O5" s="20" t="n"/>
+      <c r="P5" s="21" t="n"/>
+      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>Sample</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="76" t="inlineStr">
+      <c r="A6" s="72" t="inlineStr">
         <is>
           <t>Purpose of the list: Collect project specific modifications in E²PROM container
 - collect the workarounds found during Locked Objects Justification or Errata Sheet Justification
@@ -1124,225 +1106,213 @@
 - collect information about use case Reprog</t>
         </is>
       </c>
-      <c r="B6" s="77" t="n"/>
-      <c r="C6" s="77" t="n"/>
-      <c r="D6" s="77" t="n"/>
-      <c r="E6" s="77" t="n"/>
-      <c r="F6" s="77" t="n"/>
-      <c r="G6" s="77" t="n"/>
-      <c r="H6" s="77" t="n"/>
-      <c r="I6" s="77" t="n"/>
-      <c r="J6" s="77" t="n"/>
-      <c r="K6" s="77" t="n"/>
-      <c r="L6" s="77" t="n"/>
-      <c r="M6" s="77" t="n"/>
-      <c r="N6" s="77" t="n"/>
-      <c r="O6" s="77" t="n"/>
-      <c r="P6" s="77" t="n"/>
-      <c r="Q6" s="78" t="n"/>
+      <c r="B6" s="73" t="n"/>
+      <c r="C6" s="73" t="n"/>
+      <c r="D6" s="73" t="n"/>
+      <c r="E6" s="73" t="n"/>
+      <c r="F6" s="73" t="n"/>
+      <c r="G6" s="73" t="n"/>
+      <c r="H6" s="73" t="n"/>
+      <c r="I6" s="73" t="n"/>
+      <c r="J6" s="73" t="n"/>
+      <c r="K6" s="73" t="n"/>
+      <c r="L6" s="73" t="n"/>
+      <c r="M6" s="73" t="n"/>
+      <c r="N6" s="73" t="n"/>
+      <c r="O6" s="74" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="66" t="inlineStr">
+      <c r="A7" s="62" t="inlineStr">
         <is>
           <t>Details can be found in the Working Instruction for Review E²PROM Container:</t>
         </is>
       </c>
-      <c r="B7" s="79" t="n"/>
-      <c r="C7" s="79" t="n"/>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="79" t="n"/>
-      <c r="F7" s="69" t="n"/>
-      <c r="G7" s="79" t="n"/>
-      <c r="H7" s="79" t="n"/>
-      <c r="I7" s="79" t="n"/>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="79" t="n"/>
-      <c r="L7" s="79" t="n"/>
-      <c r="M7" s="79" t="n"/>
-      <c r="N7" s="79" t="n"/>
-      <c r="O7" s="79" t="n"/>
-      <c r="P7" s="79" t="n"/>
-      <c r="Q7" s="80" t="n"/>
+      <c r="B7" s="75" t="n"/>
+      <c r="C7" s="75" t="n"/>
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="75" t="n"/>
+      <c r="F7" s="75" t="n"/>
+      <c r="G7" s="75" t="n"/>
+      <c r="H7" s="75" t="n"/>
+      <c r="I7" s="75" t="n"/>
+      <c r="J7" s="75" t="n"/>
+      <c r="K7" s="75" t="n"/>
+      <c r="L7" s="75" t="n"/>
+      <c r="M7" s="75" t="n"/>
+      <c r="N7" s="75" t="n"/>
+      <c r="O7" s="76" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="81" t="inlineStr">
+      <c r="A8" s="77" t="inlineStr">
         <is>
           <t>Changes in E²PROM Container </t>
         </is>
       </c>
-      <c r="B8" s="79" t="n"/>
-      <c r="C8" s="79" t="n"/>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="79" t="n"/>
-      <c r="F8" s="79" t="n"/>
-      <c r="G8" s="79" t="n"/>
-      <c r="H8" s="79" t="n"/>
-      <c r="I8" s="79" t="n"/>
-      <c r="J8" s="79" t="n"/>
-      <c r="K8" s="79" t="n"/>
-      <c r="L8" s="79" t="n"/>
-      <c r="M8" s="79" t="n"/>
-      <c r="N8" s="79" t="n"/>
-      <c r="O8" s="79" t="n"/>
-      <c r="P8" s="79" t="n"/>
-      <c r="Q8" s="80" t="n"/>
+      <c r="B8" s="75" t="n"/>
+      <c r="C8" s="75" t="n"/>
+      <c r="D8" s="75" t="n"/>
+      <c r="E8" s="75" t="n"/>
+      <c r="F8" s="75" t="n"/>
+      <c r="G8" s="75" t="n"/>
+      <c r="H8" s="75" t="n"/>
+      <c r="I8" s="75" t="n"/>
+      <c r="J8" s="75" t="n"/>
+      <c r="K8" s="75" t="n"/>
+      <c r="L8" s="75" t="n"/>
+      <c r="M8" s="75" t="n"/>
+      <c r="N8" s="75" t="n"/>
+      <c r="O8" s="76" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="9" thickBot="1">
-      <c r="A9" s="29" t="inlineStr">
+      <c r="A9" s="26" t="inlineStr">
         <is>
           <t>Empty fields: no change!</t>
         </is>
       </c>
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="E9" s="30" t="n"/>
-      <c r="F9" s="61" t="inlineStr">
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="57" t="inlineStr">
         <is>
           <t>Desired State of Use Cases
 Sample</t>
         </is>
       </c>
-      <c r="G9" s="77" t="n"/>
-      <c r="H9" s="78" t="n"/>
-      <c r="I9" s="46" t="n"/>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="P9" s="53" t="inlineStr">
+      <c r="E9" s="73" t="n"/>
+      <c r="F9" s="74" t="n"/>
+      <c r="G9" s="43" t="n"/>
+      <c r="H9" s="43" t="n"/>
+      <c r="I9" s="43" t="n"/>
+      <c r="J9" s="43" t="n"/>
+      <c r="K9" s="43" t="n"/>
+      <c r="L9" s="43" t="n"/>
+      <c r="N9" s="50" t="inlineStr">
         <is>
           <t>Sample/Production</t>
         </is>
       </c>
-      <c r="Q9" s="22" t="n"/>
+      <c r="O9" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="23.4" r="10" thickBot="1">
-      <c r="A10" s="44" t="n"/>
-      <c r="B10" s="25" t="n"/>
-      <c r="C10" s="25" t="n"/>
-      <c r="E10" s="49" t="n"/>
-      <c r="F10" s="82" t="inlineStr">
+      <c r="A10" s="41" t="n"/>
+      <c r="C10" s="46" t="n"/>
+      <c r="D10" s="78" t="inlineStr">
         <is>
           <t>CRPs Ratings</t>
         </is>
       </c>
-      <c r="G10" s="83" t="n"/>
-      <c r="H10" s="84" t="n"/>
-      <c r="I10" s="85" t="inlineStr">
+      <c r="E10" s="79" t="n"/>
+      <c r="F10" s="80" t="n"/>
+      <c r="G10" s="81" t="inlineStr">
         <is>
           <t>Current settings (Use Cases) in SW</t>
         </is>
       </c>
-      <c r="J10" s="83" t="n"/>
-      <c r="K10" s="84" t="n"/>
-      <c r="L10" s="86" t="inlineStr">
+      <c r="H10" s="79" t="n"/>
+      <c r="I10" s="80" t="n"/>
+      <c r="J10" s="82" t="inlineStr">
         <is>
           <t>Expected use case for Production release</t>
         </is>
       </c>
-      <c r="M10" s="83" t="n"/>
-      <c r="N10" s="84" t="n"/>
-      <c r="P10" s="45" t="n"/>
-      <c r="Q10" s="22" t="n"/>
+      <c r="K10" s="79" t="n"/>
+      <c r="L10" s="80" t="n"/>
+      <c r="N10" s="42" t="n"/>
+      <c r="O10" s="22" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="52.8" r="11" s="11">
-      <c r="A11" s="31" t="inlineStr">
+      <c r="A11" s="28" t="inlineStr">
         <is>
           <t>NVM Data Item name</t>
         </is>
       </c>
-      <c r="B11" s="32" t="n"/>
-      <c r="C11" s="32" t="n"/>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>ID number</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="C11" s="30" t="inlineStr">
         <is>
           <t>CR-P</t>
         </is>
       </c>
-      <c r="F11" s="34" t="inlineStr">
+      <c r="D11" s="31" t="inlineStr">
         <is>
           <t>Delivery State</t>
         </is>
       </c>
-      <c r="G11" s="34" t="inlineStr">
+      <c r="E11" s="31" t="inlineStr">
         <is>
           <t>Reset To Delivery State</t>
         </is>
       </c>
-      <c r="H11" s="34" t="inlineStr">
+      <c r="F11" s="31" t="inlineStr">
         <is>
           <t>Reprog</t>
         </is>
       </c>
-      <c r="I11" s="47" t="inlineStr">
+      <c r="G11" s="44" t="inlineStr">
         <is>
           <t>Delivery State</t>
         </is>
       </c>
-      <c r="J11" s="47" t="inlineStr">
+      <c r="H11" s="44" t="inlineStr">
         <is>
           <t>Reset To Delivery State</t>
         </is>
       </c>
-      <c r="K11" s="47" t="inlineStr">
+      <c r="I11" s="44" t="inlineStr">
         <is>
           <t>Reprog</t>
         </is>
       </c>
-      <c r="L11" s="48" t="inlineStr">
+      <c r="J11" s="45" t="inlineStr">
         <is>
           <t>Delivery State</t>
         </is>
       </c>
-      <c r="M11" s="48" t="inlineStr">
+      <c r="K11" s="45" t="inlineStr">
         <is>
           <t>Reset To Delivery State</t>
         </is>
       </c>
-      <c r="N11" s="48" t="inlineStr">
+      <c r="L11" s="45" t="inlineStr">
         <is>
           <t>Reprog</t>
         </is>
       </c>
-      <c r="O11" s="35" t="inlineStr">
+      <c r="M11" s="32" t="inlineStr">
         <is>
           <t>Desired Type
 (range or datablock)</t>
         </is>
       </c>
-      <c r="P11" s="35" t="inlineStr">
+      <c r="N11" s="32" t="inlineStr">
         <is>
           <t>Desired Data
 BB9976
 (only allowed in case of type=datablock,plain)</t>
         </is>
       </c>
-      <c r="Q11" s="32" t="inlineStr">
+      <c r="O11" s="29" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="R11" s="36" t="inlineStr">
+      <c r="P11" s="33" t="inlineStr">
         <is>
           <t>Rating</t>
         </is>
       </c>
-      <c r="S11" s="36" t="inlineStr">
+      <c r="Q11" s="33" t="inlineStr">
         <is>
           <t>Rated by</t>
         </is>
       </c>
-      <c r="T11" s="36" t="inlineStr">
+      <c r="R11" s="33" t="inlineStr">
         <is>
           <t> Comments</t>
         </is>
       </c>
-      <c r="U11" s="37" t="inlineStr">
+      <c r="S11" s="34" t="inlineStr">
         <is>
           <t>Reference Comments from GA</t>
         </is>
@@ -1354,26 +1324,26 @@
           <t>Id_Config</t>
         </is>
       </c>
-      <c r="D12" s="26" t="n">
+      <c r="B12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="n"/>
-      <c r="H12" s="27" t="n"/>
-      <c r="I12" s="27" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
-      <c r="M12" s="27" t="n"/>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="inlineStr">
+      <c r="C12" s="24" t="n"/>
+      <c r="D12" s="24" t="n"/>
+      <c r="E12" s="24" t="n"/>
+      <c r="F12" s="24" t="n"/>
+      <c r="G12" s="24" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="24" t="inlineStr">
         <is>
           <t>ee_datablock</t>
         </is>
       </c>
-      <c r="P12" s="28" t="n"/>
-      <c r="Q12" s="38" t="n"/>
+      <c r="N12" s="25" t="n"/>
+      <c r="O12" s="35" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1381,26 +1351,26 @@
           <t>SampleData_01</t>
         </is>
       </c>
-      <c r="D13" s="26" t="n">
+      <c r="B13" s="23" t="n">
         <v>1710</v>
       </c>
-      <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="n"/>
-      <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="n"/>
-      <c r="L13" s="27" t="n"/>
-      <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="inlineStr">
+      <c r="C13" s="24" t="n"/>
+      <c r="D13" s="24" t="n"/>
+      <c r="E13" s="24" t="n"/>
+      <c r="F13" s="24" t="n"/>
+      <c r="G13" s="24" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
+      <c r="L13" s="24" t="n"/>
+      <c r="M13" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P13" s="28" t="n"/>
-      <c r="Q13" s="38" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="35" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1408,34 +1378,34 @@
           <t>SampleData_02</t>
         </is>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="B14" s="23" t="n">
         <v>1711</v>
       </c>
-      <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="n"/>
-      <c r="H14" s="27" t="n"/>
-      <c r="I14" s="27" t="inlineStr">
+      <c r="C14" s="24" t="n"/>
+      <c r="D14" s="24" t="n"/>
+      <c r="E14" s="24" t="n"/>
+      <c r="F14" s="24" t="n"/>
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J14" s="27" t="inlineStr">
+      <c r="H14" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K14" s="27" t="n"/>
-      <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="n"/>
-      <c r="N14" s="27" t="n"/>
-      <c r="O14" s="27" t="inlineStr">
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="24" t="n"/>
+      <c r="K14" s="24" t="n"/>
+      <c r="L14" s="24" t="n"/>
+      <c r="M14" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P14" s="28" t="n"/>
-      <c r="Q14" s="38" t="n"/>
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="35" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1443,30 +1413,30 @@
           <t>SampleData_03</t>
         </is>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="B15" s="23" t="n">
         <v>1712</v>
       </c>
-      <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="27" t="n"/>
-      <c r="H15" s="27" t="n"/>
-      <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="inlineStr">
+      <c r="C15" s="24" t="n"/>
+      <c r="D15" s="24" t="n"/>
+      <c r="E15" s="24" t="n"/>
+      <c r="F15" s="24" t="n"/>
+      <c r="G15" s="24" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="inlineStr">
+      <c r="J15" s="24" t="n"/>
+      <c r="K15" s="24" t="n"/>
+      <c r="L15" s="24" t="n"/>
+      <c r="M15" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P15" s="28" t="n"/>
-      <c r="Q15" s="38" t="n"/>
+      <c r="N15" s="25" t="n"/>
+      <c r="O15" s="35" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1474,30 +1444,30 @@
           <t>SampleData_04</t>
         </is>
       </c>
-      <c r="D16" s="26" t="n">
+      <c r="B16" s="23" t="n">
         <v>1713</v>
       </c>
-      <c r="E16" s="27" t="n"/>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="27" t="n"/>
-      <c r="H16" s="27" t="n"/>
-      <c r="I16" s="27" t="inlineStr">
+      <c r="C16" s="24" t="n"/>
+      <c r="D16" s="24" t="n"/>
+      <c r="E16" s="24" t="n"/>
+      <c r="F16" s="24" t="n"/>
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="n"/>
-      <c r="L16" s="27" t="n"/>
-      <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="inlineStr">
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="24" t="n"/>
+      <c r="J16" s="24" t="n"/>
+      <c r="K16" s="24" t="n"/>
+      <c r="L16" s="24" t="n"/>
+      <c r="M16" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P16" s="28" t="n"/>
-      <c r="Q16" s="38" t="n"/>
+      <c r="N16" s="25" t="n"/>
+      <c r="O16" s="35" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1505,34 +1475,34 @@
           <t>SampleData_05</t>
         </is>
       </c>
-      <c r="D17" s="26" t="n">
+      <c r="B17" s="23" t="n">
         <v>1714</v>
       </c>
-      <c r="E17" s="27" t="n"/>
-      <c r="F17" s="27" t="n"/>
-      <c r="G17" s="27" t="n"/>
-      <c r="H17" s="27" t="n"/>
-      <c r="I17" s="27" t="n"/>
-      <c r="J17" s="27" t="inlineStr">
+      <c r="C17" s="24" t="n"/>
+      <c r="D17" s="24" t="n"/>
+      <c r="E17" s="24" t="n"/>
+      <c r="F17" s="24" t="n"/>
+      <c r="G17" s="24" t="n"/>
+      <c r="H17" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K17" s="27" t="inlineStr">
+      <c r="I17" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L17" s="27" t="n"/>
-      <c r="M17" s="27" t="n"/>
-      <c r="N17" s="27" t="n"/>
-      <c r="O17" s="27" t="inlineStr">
+      <c r="J17" s="24" t="n"/>
+      <c r="K17" s="24" t="n"/>
+      <c r="L17" s="24" t="n"/>
+      <c r="M17" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P17" s="28" t="n"/>
-      <c r="Q17" s="38" t="n"/>
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="35" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1540,34 +1510,34 @@
           <t>TestData_07</t>
         </is>
       </c>
-      <c r="D18" s="26" t="n">
+      <c r="B18" s="23" t="n">
         <v>12345</v>
       </c>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
-      <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="n"/>
-      <c r="I18" s="27" t="inlineStr">
+      <c r="C18" s="24" t="n"/>
+      <c r="D18" s="24" t="n"/>
+      <c r="E18" s="24" t="n"/>
+      <c r="F18" s="24" t="n"/>
+      <c r="G18" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J18" s="27" t="inlineStr">
+      <c r="H18" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K18" s="27" t="n"/>
-      <c r="L18" s="27" t="n"/>
-      <c r="M18" s="27" t="n"/>
-      <c r="N18" s="27" t="n"/>
-      <c r="O18" s="27" t="inlineStr">
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="24" t="n"/>
+      <c r="K18" s="24" t="n"/>
+      <c r="L18" s="24" t="n"/>
+      <c r="M18" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P18" s="28" t="n"/>
-      <c r="Q18" s="38" t="n"/>
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="35" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1575,30 +1545,30 @@
           <t>TestData_08</t>
         </is>
       </c>
-      <c r="D19" s="26" t="n">
+      <c r="B19" s="23" t="n">
         <v>12346</v>
       </c>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="n"/>
-      <c r="H19" s="27" t="n"/>
-      <c r="I19" s="27" t="n"/>
-      <c r="J19" s="27" t="n"/>
-      <c r="K19" s="27" t="inlineStr">
+      <c r="C19" s="24" t="n"/>
+      <c r="D19" s="24" t="n"/>
+      <c r="E19" s="24" t="n"/>
+      <c r="F19" s="24" t="n"/>
+      <c r="G19" s="24" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L19" s="27" t="n"/>
-      <c r="M19" s="27" t="n"/>
-      <c r="N19" s="27" t="n"/>
-      <c r="O19" s="27" t="inlineStr">
+      <c r="J19" s="24" t="n"/>
+      <c r="K19" s="24" t="n"/>
+      <c r="L19" s="24" t="n"/>
+      <c r="M19" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P19" s="28" t="n"/>
-      <c r="Q19" s="38" t="n"/>
+      <c r="N19" s="25" t="n"/>
+      <c r="O19" s="35" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1606,30 +1576,30 @@
           <t>TestData_09</t>
         </is>
       </c>
-      <c r="D20" s="26" t="n">
+      <c r="B20" s="23" t="n">
         <v>12347</v>
       </c>
-      <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="n"/>
-      <c r="H20" s="27" t="n"/>
-      <c r="I20" s="27" t="inlineStr">
+      <c r="C20" s="24" t="n"/>
+      <c r="D20" s="24" t="n"/>
+      <c r="E20" s="24" t="n"/>
+      <c r="F20" s="24" t="n"/>
+      <c r="G20" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="n"/>
-      <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="n"/>
-      <c r="N20" s="27" t="n"/>
-      <c r="O20" s="27" t="inlineStr">
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="24" t="n"/>
+      <c r="J20" s="24" t="n"/>
+      <c r="K20" s="24" t="n"/>
+      <c r="L20" s="24" t="n"/>
+      <c r="M20" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P20" s="28" t="n"/>
-      <c r="Q20" s="38" t="n"/>
+      <c r="N20" s="25" t="n"/>
+      <c r="O20" s="35" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1637,34 +1607,34 @@
           <t>TestData_10</t>
         </is>
       </c>
-      <c r="D21" s="26" t="n">
+      <c r="B21" s="23" t="n">
         <v>12348</v>
       </c>
-      <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
-      <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n"/>
-      <c r="J21" s="27" t="inlineStr">
+      <c r="C21" s="24" t="n"/>
+      <c r="D21" s="24" t="n"/>
+      <c r="E21" s="24" t="n"/>
+      <c r="F21" s="24" t="n"/>
+      <c r="G21" s="24" t="n"/>
+      <c r="H21" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K21" s="27" t="inlineStr">
+      <c r="I21" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L21" s="27" t="n"/>
-      <c r="M21" s="27" t="n"/>
-      <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="inlineStr">
+      <c r="J21" s="24" t="n"/>
+      <c r="K21" s="24" t="n"/>
+      <c r="L21" s="24" t="n"/>
+      <c r="M21" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P21" s="28" t="n"/>
-      <c r="Q21" s="38" t="n"/>
+      <c r="N21" s="25" t="n"/>
+      <c r="O21" s="35" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1672,34 +1642,34 @@
           <t>TestData_11</t>
         </is>
       </c>
-      <c r="D22" s="26" t="n">
+      <c r="B22" s="23" t="n">
         <v>12349</v>
       </c>
-      <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="n"/>
-      <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n"/>
-      <c r="J22" s="27" t="inlineStr">
+      <c r="C22" s="24" t="n"/>
+      <c r="D22" s="24" t="n"/>
+      <c r="E22" s="24" t="n"/>
+      <c r="F22" s="24" t="n"/>
+      <c r="G22" s="24" t="n"/>
+      <c r="H22" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K22" s="27" t="inlineStr">
+      <c r="I22" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L22" s="27" t="n"/>
-      <c r="M22" s="27" t="n"/>
-      <c r="N22" s="27" t="n"/>
-      <c r="O22" s="27" t="inlineStr">
+      <c r="J22" s="24" t="n"/>
+      <c r="K22" s="24" t="n"/>
+      <c r="L22" s="24" t="n"/>
+      <c r="M22" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P22" s="28" t="n"/>
-      <c r="Q22" s="38" t="n"/>
+      <c r="N22" s="25" t="n"/>
+      <c r="O22" s="35" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1707,30 +1677,30 @@
           <t>TestData_11</t>
         </is>
       </c>
-      <c r="D23" s="26" t="n">
+      <c r="B23" s="23" t="n">
         <v>12349</v>
       </c>
-      <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="n"/>
-      <c r="H23" s="27" t="n"/>
-      <c r="I23" s="27" t="inlineStr">
+      <c r="C23" s="24" t="n"/>
+      <c r="D23" s="24" t="n"/>
+      <c r="E23" s="24" t="n"/>
+      <c r="F23" s="24" t="n"/>
+      <c r="G23" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J23" s="27" t="n"/>
-      <c r="K23" s="27" t="n"/>
-      <c r="L23" s="27" t="n"/>
-      <c r="M23" s="27" t="n"/>
-      <c r="N23" s="27" t="n"/>
-      <c r="O23" s="27" t="inlineStr">
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="24" t="n"/>
+      <c r="J23" s="24" t="n"/>
+      <c r="K23" s="24" t="n"/>
+      <c r="L23" s="24" t="n"/>
+      <c r="M23" s="24" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="P23" s="28" t="n"/>
-      <c r="Q23" s="38" t="n"/>
+      <c r="N23" s="25" t="n"/>
+      <c r="O23" s="35" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1738,30 +1708,30 @@
           <t>DUMMY_TestModuleCnt</t>
         </is>
       </c>
-      <c r="D24" s="26" t="n">
+      <c r="B24" s="23" t="n">
         <v>31416</v>
       </c>
-      <c r="E24" s="27" t="n"/>
-      <c r="F24" s="27" t="n"/>
-      <c r="G24" s="27" t="n"/>
-      <c r="H24" s="27" t="n"/>
-      <c r="I24" s="27" t="n"/>
-      <c r="J24" s="27" t="n"/>
-      <c r="K24" s="27" t="inlineStr">
+      <c r="C24" s="24" t="n"/>
+      <c r="D24" s="24" t="n"/>
+      <c r="E24" s="24" t="n"/>
+      <c r="F24" s="24" t="n"/>
+      <c r="G24" s="24" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L24" s="27" t="n"/>
-      <c r="M24" s="27" t="n"/>
-      <c r="N24" s="27" t="n"/>
-      <c r="O24" s="27" t="inlineStr">
+      <c r="J24" s="24" t="n"/>
+      <c r="K24" s="24" t="n"/>
+      <c r="L24" s="24" t="n"/>
+      <c r="M24" s="24" t="inlineStr">
         <is>
           <t>ee_erase</t>
         </is>
       </c>
-      <c r="P24" s="28" t="n"/>
-      <c r="Q24" s="38" t="inlineStr">
+      <c r="N24" s="25" t="n"/>
+      <c r="O24" s="35" t="inlineStr">
         <is>
           <t>description=- Component: DUMMY
 - REPROG info: use case REPROG must not be set (data must not be changed after reprogramming)!
@@ -1777,1470 +1747,1438 @@
           <t>ASDFClockTower</t>
         </is>
       </c>
-      <c r="D25" s="26" t="n">
+      <c r="B25" s="23" t="n">
         <v>111255</v>
       </c>
-      <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="n"/>
-      <c r="G25" s="27" t="n"/>
-      <c r="H25" s="27" t="n"/>
-      <c r="I25" s="27" t="inlineStr">
+      <c r="C25" s="24" t="n"/>
+      <c r="D25" s="24" t="n"/>
+      <c r="E25" s="24" t="n"/>
+      <c r="F25" s="24" t="n"/>
+      <c r="G25" s="24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J25" s="27" t="n"/>
-      <c r="K25" s="27" t="n"/>
-      <c r="L25" s="27" t="n"/>
-      <c r="M25" s="27" t="n"/>
-      <c r="N25" s="27" t="n"/>
-      <c r="O25" s="27" t="inlineStr">
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="24" t="n"/>
+      <c r="J25" s="24" t="n"/>
+      <c r="K25" s="24" t="n"/>
+      <c r="L25" s="24" t="n"/>
+      <c r="M25" s="24" t="inlineStr">
         <is>
           <t>ee_datablock</t>
         </is>
       </c>
-      <c r="P25" s="28" t="n"/>
-      <c r="Q25" s="38" t="n"/>
+      <c r="N25" s="25" t="n"/>
+      <c r="O25" s="35" t="n"/>
     </row>
     <row r="26">
-      <c r="D26" s="26" t="n"/>
-      <c r="E26" s="27" t="n"/>
-      <c r="F26" s="27" t="n"/>
-      <c r="G26" s="27" t="n"/>
-      <c r="H26" s="27" t="n"/>
-      <c r="I26" s="27" t="n"/>
-      <c r="J26" s="27" t="n"/>
-      <c r="K26" s="27" t="n"/>
-      <c r="L26" s="27" t="n"/>
-      <c r="M26" s="27" t="n"/>
-      <c r="N26" s="27" t="n"/>
-      <c r="O26" s="27" t="n"/>
-      <c r="P26" s="28" t="n"/>
-      <c r="Q26" s="38" t="n"/>
+      <c r="B26" s="23" t="n"/>
+      <c r="C26" s="24" t="n"/>
+      <c r="D26" s="24" t="n"/>
+      <c r="E26" s="24" t="n"/>
+      <c r="F26" s="24" t="n"/>
+      <c r="G26" s="24" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="24" t="n"/>
+      <c r="J26" s="24" t="n"/>
+      <c r="K26" s="24" t="n"/>
+      <c r="L26" s="24" t="n"/>
+      <c r="M26" s="24" t="n"/>
+      <c r="N26" s="25" t="n"/>
+      <c r="O26" s="35" t="n"/>
     </row>
     <row r="27">
-      <c r="D27" s="26" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
-      <c r="H27" s="27" t="n"/>
-      <c r="I27" s="27" t="n"/>
-      <c r="J27" s="27" t="n"/>
-      <c r="K27" s="27" t="n"/>
-      <c r="L27" s="27" t="n"/>
-      <c r="M27" s="27" t="n"/>
-      <c r="N27" s="27" t="n"/>
-      <c r="O27" s="27" t="n"/>
-      <c r="P27" s="28" t="n"/>
-      <c r="Q27" s="38" t="n"/>
+      <c r="B27" s="23" t="n"/>
+      <c r="C27" s="24" t="n"/>
+      <c r="D27" s="24" t="n"/>
+      <c r="E27" s="24" t="n"/>
+      <c r="F27" s="24" t="n"/>
+      <c r="G27" s="24" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="24" t="n"/>
+      <c r="J27" s="24" t="n"/>
+      <c r="K27" s="24" t="n"/>
+      <c r="L27" s="24" t="n"/>
+      <c r="M27" s="24" t="n"/>
+      <c r="N27" s="25" t="n"/>
+      <c r="O27" s="35" t="n"/>
     </row>
     <row r="28">
-      <c r="D28" s="26" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="n"/>
-      <c r="H28" s="27" t="n"/>
-      <c r="I28" s="27" t="n"/>
-      <c r="J28" s="27" t="n"/>
-      <c r="K28" s="27" t="n"/>
-      <c r="L28" s="27" t="n"/>
-      <c r="M28" s="27" t="n"/>
-      <c r="N28" s="27" t="n"/>
-      <c r="O28" s="27" t="n"/>
-      <c r="P28" s="28" t="n"/>
-      <c r="Q28" s="38" t="n"/>
-    </row>
-    <row customFormat="1" r="29" s="51">
+      <c r="B28" s="23" t="n"/>
+      <c r="C28" s="24" t="n"/>
+      <c r="D28" s="24" t="n"/>
+      <c r="E28" s="24" t="n"/>
+      <c r="F28" s="24" t="n"/>
+      <c r="G28" s="24" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="24" t="n"/>
+      <c r="K28" s="24" t="n"/>
+      <c r="L28" s="24" t="n"/>
+      <c r="M28" s="24" t="n"/>
+      <c r="N28" s="25" t="n"/>
+      <c r="O28" s="35" t="n"/>
+    </row>
+    <row customFormat="1" r="29" s="48">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="9" t="n"/>
-      <c r="D29" s="26" t="n"/>
-      <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="27" t="n"/>
-      <c r="H29" s="27" t="n"/>
-      <c r="I29" s="27" t="n"/>
-      <c r="J29" s="27" t="n"/>
-      <c r="K29" s="27" t="n"/>
-      <c r="L29" s="27" t="n"/>
-      <c r="M29" s="27" t="n"/>
-      <c r="N29" s="27" t="n"/>
-      <c r="O29" s="27" t="n"/>
-      <c r="P29" s="28" t="n"/>
-      <c r="Q29" s="38" t="n"/>
+      <c r="B29" s="23" t="n"/>
+      <c r="C29" s="24" t="n"/>
+      <c r="D29" s="24" t="n"/>
+      <c r="E29" s="24" t="n"/>
+      <c r="F29" s="24" t="n"/>
+      <c r="G29" s="24" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="24" t="n"/>
+      <c r="J29" s="24" t="n"/>
+      <c r="K29" s="24" t="n"/>
+      <c r="L29" s="24" t="n"/>
+      <c r="M29" s="24" t="n"/>
+      <c r="N29" s="25" t="n"/>
+      <c r="O29" s="35" t="n"/>
+      <c r="P29" s="9" t="n"/>
+      <c r="Q29" s="9" t="n"/>
       <c r="R29" s="9" t="n"/>
-      <c r="S29" s="9" t="n"/>
-      <c r="T29" s="9" t="n"/>
-      <c r="U29" s="11" t="n"/>
+      <c r="S29" s="11" t="n"/>
     </row>
     <row r="30">
-      <c r="D30" s="26" t="n"/>
-      <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="27" t="n"/>
-      <c r="H30" s="27" t="n"/>
-      <c r="I30" s="27" t="n"/>
-      <c r="J30" s="27" t="n"/>
-      <c r="K30" s="27" t="n"/>
-      <c r="L30" s="27" t="n"/>
-      <c r="M30" s="27" t="n"/>
-      <c r="N30" s="27" t="n"/>
-      <c r="O30" s="27" t="n"/>
-      <c r="P30" s="28" t="n"/>
-      <c r="Q30" s="38" t="n"/>
+      <c r="B30" s="23" t="n"/>
+      <c r="C30" s="24" t="n"/>
+      <c r="D30" s="24" t="n"/>
+      <c r="E30" s="24" t="n"/>
+      <c r="F30" s="24" t="n"/>
+      <c r="G30" s="24" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="24" t="n"/>
+      <c r="J30" s="24" t="n"/>
+      <c r="K30" s="24" t="n"/>
+      <c r="L30" s="24" t="n"/>
+      <c r="M30" s="24" t="n"/>
+      <c r="N30" s="25" t="n"/>
+      <c r="O30" s="35" t="n"/>
     </row>
     <row r="31">
-      <c r="D31" s="26" t="n"/>
-      <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="27" t="n"/>
-      <c r="H31" s="27" t="n"/>
-      <c r="I31" s="27" t="n"/>
-      <c r="J31" s="27" t="n"/>
-      <c r="K31" s="27" t="n"/>
-      <c r="L31" s="27" t="n"/>
-      <c r="M31" s="27" t="n"/>
-      <c r="N31" s="27" t="n"/>
-      <c r="O31" s="27" t="n"/>
-      <c r="P31" s="28" t="n"/>
-      <c r="Q31" s="38" t="n"/>
+      <c r="B31" s="23" t="n"/>
+      <c r="C31" s="24" t="n"/>
+      <c r="D31" s="24" t="n"/>
+      <c r="E31" s="24" t="n"/>
+      <c r="F31" s="24" t="n"/>
+      <c r="G31" s="24" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="24" t="n"/>
+      <c r="J31" s="24" t="n"/>
+      <c r="K31" s="24" t="n"/>
+      <c r="L31" s="24" t="n"/>
+      <c r="M31" s="24" t="n"/>
+      <c r="N31" s="25" t="n"/>
+      <c r="O31" s="35" t="n"/>
     </row>
     <row r="32">
-      <c r="D32" s="26" t="n"/>
-      <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="n"/>
-      <c r="G32" s="27" t="n"/>
-      <c r="H32" s="27" t="n"/>
-      <c r="I32" s="27" t="n"/>
-      <c r="J32" s="27" t="n"/>
-      <c r="K32" s="27" t="n"/>
-      <c r="L32" s="27" t="n"/>
-      <c r="M32" s="27" t="n"/>
-      <c r="N32" s="27" t="n"/>
-      <c r="O32" s="27" t="n"/>
-      <c r="P32" s="28" t="n"/>
-      <c r="Q32" s="38" t="n"/>
+      <c r="B32" s="23" t="n"/>
+      <c r="C32" s="24" t="n"/>
+      <c r="D32" s="24" t="n"/>
+      <c r="E32" s="24" t="n"/>
+      <c r="F32" s="24" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="24" t="n"/>
+      <c r="I32" s="24" t="n"/>
+      <c r="J32" s="24" t="n"/>
+      <c r="K32" s="24" t="n"/>
+      <c r="L32" s="24" t="n"/>
+      <c r="M32" s="24" t="n"/>
+      <c r="N32" s="25" t="n"/>
+      <c r="O32" s="35" t="n"/>
     </row>
     <row r="33">
-      <c r="D33" s="26" t="n"/>
-      <c r="E33" s="27" t="n"/>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="27" t="n"/>
-      <c r="H33" s="27" t="n"/>
-      <c r="I33" s="27" t="n"/>
-      <c r="J33" s="27" t="n"/>
-      <c r="K33" s="27" t="n"/>
-      <c r="L33" s="27" t="n"/>
-      <c r="M33" s="27" t="n"/>
-      <c r="N33" s="27" t="n"/>
-      <c r="O33" s="27" t="n"/>
-      <c r="P33" s="28" t="n"/>
-      <c r="Q33" s="38" t="n"/>
+      <c r="B33" s="23" t="n"/>
+      <c r="C33" s="24" t="n"/>
+      <c r="D33" s="24" t="n"/>
+      <c r="E33" s="24" t="n"/>
+      <c r="F33" s="24" t="n"/>
+      <c r="G33" s="24" t="n"/>
+      <c r="H33" s="24" t="n"/>
+      <c r="I33" s="24" t="n"/>
+      <c r="J33" s="24" t="n"/>
+      <c r="K33" s="24" t="n"/>
+      <c r="L33" s="24" t="n"/>
+      <c r="M33" s="24" t="n"/>
+      <c r="N33" s="25" t="n"/>
+      <c r="O33" s="35" t="n"/>
     </row>
     <row r="34">
-      <c r="D34" s="26" t="n"/>
-      <c r="E34" s="27" t="n"/>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="27" t="n"/>
-      <c r="H34" s="27" t="n"/>
-      <c r="I34" s="27" t="n"/>
-      <c r="J34" s="27" t="n"/>
-      <c r="K34" s="27" t="n"/>
-      <c r="L34" s="27" t="n"/>
-      <c r="M34" s="27" t="n"/>
-      <c r="N34" s="27" t="n"/>
-      <c r="O34" s="27" t="n"/>
-      <c r="P34" s="28" t="n"/>
-      <c r="Q34" s="38" t="n"/>
+      <c r="B34" s="23" t="n"/>
+      <c r="C34" s="24" t="n"/>
+      <c r="D34" s="24" t="n"/>
+      <c r="E34" s="24" t="n"/>
+      <c r="F34" s="24" t="n"/>
+      <c r="G34" s="24" t="n"/>
+      <c r="H34" s="24" t="n"/>
+      <c r="I34" s="24" t="n"/>
+      <c r="J34" s="24" t="n"/>
+      <c r="K34" s="24" t="n"/>
+      <c r="L34" s="24" t="n"/>
+      <c r="M34" s="24" t="n"/>
+      <c r="N34" s="25" t="n"/>
+      <c r="O34" s="35" t="n"/>
     </row>
     <row r="35">
-      <c r="D35" s="26" t="n"/>
-      <c r="E35" s="27" t="n"/>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="27" t="n"/>
-      <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n"/>
-      <c r="J35" s="27" t="n"/>
-      <c r="K35" s="27" t="n"/>
-      <c r="L35" s="27" t="n"/>
-      <c r="M35" s="27" t="n"/>
-      <c r="N35" s="27" t="n"/>
-      <c r="O35" s="27" t="n"/>
-      <c r="P35" s="28" t="n"/>
-      <c r="Q35" s="38" t="n"/>
+      <c r="B35" s="23" t="n"/>
+      <c r="C35" s="24" t="n"/>
+      <c r="D35" s="24" t="n"/>
+      <c r="E35" s="24" t="n"/>
+      <c r="F35" s="24" t="n"/>
+      <c r="G35" s="24" t="n"/>
+      <c r="H35" s="24" t="n"/>
+      <c r="I35" s="24" t="n"/>
+      <c r="J35" s="24" t="n"/>
+      <c r="K35" s="24" t="n"/>
+      <c r="L35" s="24" t="n"/>
+      <c r="M35" s="24" t="n"/>
+      <c r="N35" s="25" t="n"/>
+      <c r="O35" s="35" t="n"/>
     </row>
     <row r="36">
-      <c r="D36" s="26" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="27" t="n"/>
-      <c r="I36" s="27" t="n"/>
-      <c r="J36" s="27" t="n"/>
-      <c r="K36" s="27" t="n"/>
-      <c r="L36" s="27" t="n"/>
-      <c r="M36" s="27" t="n"/>
-      <c r="N36" s="27" t="n"/>
-      <c r="O36" s="27" t="n"/>
-      <c r="P36" s="28" t="n"/>
-      <c r="Q36" s="38" t="n"/>
+      <c r="B36" s="23" t="n"/>
+      <c r="C36" s="24" t="n"/>
+      <c r="D36" s="24" t="n"/>
+      <c r="E36" s="24" t="n"/>
+      <c r="F36" s="24" t="n"/>
+      <c r="G36" s="24" t="n"/>
+      <c r="H36" s="24" t="n"/>
+      <c r="I36" s="24" t="n"/>
+      <c r="J36" s="24" t="n"/>
+      <c r="K36" s="24" t="n"/>
+      <c r="L36" s="24" t="n"/>
+      <c r="M36" s="24" t="n"/>
+      <c r="N36" s="25" t="n"/>
+      <c r="O36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="D37" s="26" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="27" t="n"/>
-      <c r="H37" s="27" t="n"/>
-      <c r="I37" s="27" t="n"/>
-      <c r="J37" s="27" t="n"/>
-      <c r="K37" s="27" t="n"/>
-      <c r="L37" s="27" t="n"/>
-      <c r="M37" s="27" t="n"/>
-      <c r="N37" s="27" t="n"/>
-      <c r="O37" s="27" t="n"/>
-      <c r="P37" s="28" t="n"/>
-      <c r="Q37" s="38" t="n"/>
+      <c r="B37" s="23" t="n"/>
+      <c r="C37" s="24" t="n"/>
+      <c r="D37" s="24" t="n"/>
+      <c r="E37" s="24" t="n"/>
+      <c r="F37" s="24" t="n"/>
+      <c r="G37" s="24" t="n"/>
+      <c r="H37" s="24" t="n"/>
+      <c r="I37" s="24" t="n"/>
+      <c r="J37" s="24" t="n"/>
+      <c r="K37" s="24" t="n"/>
+      <c r="L37" s="24" t="n"/>
+      <c r="M37" s="24" t="n"/>
+      <c r="N37" s="25" t="n"/>
+      <c r="O37" s="35" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="26" t="n"/>
-      <c r="E38" s="27" t="n"/>
-      <c r="F38" s="27" t="n"/>
-      <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="n"/>
-      <c r="I38" s="27" t="n"/>
-      <c r="J38" s="27" t="n"/>
-      <c r="K38" s="27" t="n"/>
-      <c r="L38" s="27" t="n"/>
-      <c r="M38" s="27" t="n"/>
-      <c r="N38" s="27" t="n"/>
-      <c r="O38" s="27" t="n"/>
-      <c r="P38" s="28" t="n"/>
-      <c r="Q38" s="38" t="n"/>
+      <c r="B38" s="23" t="n"/>
+      <c r="C38" s="24" t="n"/>
+      <c r="D38" s="24" t="n"/>
+      <c r="E38" s="24" t="n"/>
+      <c r="F38" s="24" t="n"/>
+      <c r="G38" s="24" t="n"/>
+      <c r="H38" s="24" t="n"/>
+      <c r="I38" s="24" t="n"/>
+      <c r="J38" s="24" t="n"/>
+      <c r="K38" s="24" t="n"/>
+      <c r="L38" s="24" t="n"/>
+      <c r="M38" s="24" t="n"/>
+      <c r="N38" s="25" t="n"/>
+      <c r="O38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="26" t="n"/>
-      <c r="E39" s="27" t="n"/>
-      <c r="F39" s="27" t="n"/>
-      <c r="G39" s="27" t="n"/>
-      <c r="H39" s="27" t="n"/>
-      <c r="I39" s="27" t="n"/>
-      <c r="J39" s="27" t="n"/>
-      <c r="K39" s="27" t="n"/>
-      <c r="L39" s="27" t="n"/>
-      <c r="M39" s="27" t="n"/>
-      <c r="N39" s="27" t="n"/>
-      <c r="O39" s="27" t="n"/>
-      <c r="P39" s="28" t="n"/>
-      <c r="Q39" s="38" t="n"/>
+      <c r="B39" s="23" t="n"/>
+      <c r="C39" s="24" t="n"/>
+      <c r="D39" s="24" t="n"/>
+      <c r="E39" s="24" t="n"/>
+      <c r="F39" s="24" t="n"/>
+      <c r="G39" s="24" t="n"/>
+      <c r="H39" s="24" t="n"/>
+      <c r="I39" s="24" t="n"/>
+      <c r="J39" s="24" t="n"/>
+      <c r="K39" s="24" t="n"/>
+      <c r="L39" s="24" t="n"/>
+      <c r="M39" s="24" t="n"/>
+      <c r="N39" s="25" t="n"/>
+      <c r="O39" s="35" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="26" t="n"/>
-      <c r="E40" s="27" t="n"/>
-      <c r="F40" s="27" t="n"/>
-      <c r="G40" s="27" t="n"/>
-      <c r="H40" s="27" t="n"/>
-      <c r="I40" s="27" t="n"/>
-      <c r="J40" s="27" t="n"/>
-      <c r="K40" s="27" t="n"/>
-      <c r="L40" s="27" t="n"/>
-      <c r="M40" s="27" t="n"/>
-      <c r="N40" s="27" t="n"/>
-      <c r="O40" s="27" t="n"/>
-      <c r="P40" s="28" t="n"/>
-      <c r="Q40" s="38" t="n"/>
-    </row>
-    <row customFormat="1" r="41" s="52">
+      <c r="B40" s="23" t="n"/>
+      <c r="C40" s="24" t="n"/>
+      <c r="D40" s="24" t="n"/>
+      <c r="E40" s="24" t="n"/>
+      <c r="F40" s="24" t="n"/>
+      <c r="G40" s="24" t="n"/>
+      <c r="H40" s="24" t="n"/>
+      <c r="I40" s="24" t="n"/>
+      <c r="J40" s="24" t="n"/>
+      <c r="K40" s="24" t="n"/>
+      <c r="L40" s="24" t="n"/>
+      <c r="M40" s="24" t="n"/>
+      <c r="N40" s="25" t="n"/>
+      <c r="O40" s="35" t="n"/>
+    </row>
+    <row customFormat="1" r="41" s="49">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="26" t="n"/>
-      <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n"/>
-      <c r="G41" s="27" t="n"/>
-      <c r="H41" s="27" t="n"/>
-      <c r="I41" s="27" t="n"/>
-      <c r="J41" s="27" t="n"/>
-      <c r="K41" s="27" t="n"/>
-      <c r="L41" s="27" t="n"/>
-      <c r="M41" s="27" t="n"/>
-      <c r="N41" s="27" t="n"/>
-      <c r="O41" s="27" t="n"/>
-      <c r="P41" s="28" t="n"/>
-      <c r="Q41" s="38" t="n"/>
+      <c r="B41" s="23" t="n"/>
+      <c r="C41" s="24" t="n"/>
+      <c r="D41" s="24" t="n"/>
+      <c r="E41" s="24" t="n"/>
+      <c r="F41" s="24" t="n"/>
+      <c r="G41" s="24" t="n"/>
+      <c r="H41" s="24" t="n"/>
+      <c r="I41" s="24" t="n"/>
+      <c r="J41" s="24" t="n"/>
+      <c r="K41" s="24" t="n"/>
+      <c r="L41" s="24" t="n"/>
+      <c r="M41" s="24" t="n"/>
+      <c r="N41" s="25" t="n"/>
+      <c r="O41" s="35" t="n"/>
+      <c r="P41" s="9" t="n"/>
+      <c r="Q41" s="9" t="n"/>
       <c r="R41" s="9" t="n"/>
-      <c r="S41" s="9" t="n"/>
-      <c r="T41" s="9" t="n"/>
-      <c r="U41" s="11" t="n"/>
+      <c r="S41" s="11" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="26" t="n"/>
-      <c r="E42" s="27" t="n"/>
-      <c r="F42" s="27" t="n"/>
-      <c r="G42" s="27" t="n"/>
-      <c r="H42" s="27" t="n"/>
-      <c r="I42" s="27" t="n"/>
-      <c r="J42" s="27" t="n"/>
-      <c r="K42" s="27" t="n"/>
-      <c r="L42" s="27" t="n"/>
-      <c r="M42" s="27" t="n"/>
-      <c r="N42" s="27" t="n"/>
-      <c r="O42" s="27" t="n"/>
-      <c r="P42" s="28" t="n"/>
-      <c r="Q42" s="38" t="n"/>
-    </row>
-    <row customFormat="1" r="43" s="51">
+      <c r="B42" s="23" t="n"/>
+      <c r="C42" s="24" t="n"/>
+      <c r="D42" s="24" t="n"/>
+      <c r="E42" s="24" t="n"/>
+      <c r="F42" s="24" t="n"/>
+      <c r="G42" s="24" t="n"/>
+      <c r="H42" s="24" t="n"/>
+      <c r="I42" s="24" t="n"/>
+      <c r="J42" s="24" t="n"/>
+      <c r="K42" s="24" t="n"/>
+      <c r="L42" s="24" t="n"/>
+      <c r="M42" s="24" t="n"/>
+      <c r="N42" s="25" t="n"/>
+      <c r="O42" s="35" t="n"/>
+    </row>
+    <row customFormat="1" r="43" s="48">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="n"/>
-      <c r="D43" s="26" t="n"/>
-      <c r="E43" s="27" t="n"/>
-      <c r="F43" s="27" t="n"/>
-      <c r="G43" s="27" t="n"/>
-      <c r="H43" s="27" t="n"/>
-      <c r="I43" s="27" t="n"/>
-      <c r="J43" s="27" t="n"/>
-      <c r="K43" s="27" t="n"/>
-      <c r="L43" s="27" t="n"/>
-      <c r="M43" s="27" t="n"/>
-      <c r="N43" s="27" t="n"/>
-      <c r="O43" s="27" t="n"/>
-      <c r="P43" s="28" t="n"/>
-      <c r="Q43" s="38" t="n"/>
+      <c r="B43" s="23" t="n"/>
+      <c r="C43" s="24" t="n"/>
+      <c r="D43" s="24" t="n"/>
+      <c r="E43" s="24" t="n"/>
+      <c r="F43" s="24" t="n"/>
+      <c r="G43" s="24" t="n"/>
+      <c r="H43" s="24" t="n"/>
+      <c r="I43" s="24" t="n"/>
+      <c r="J43" s="24" t="n"/>
+      <c r="K43" s="24" t="n"/>
+      <c r="L43" s="24" t="n"/>
+      <c r="M43" s="24" t="n"/>
+      <c r="N43" s="25" t="n"/>
+      <c r="O43" s="35" t="n"/>
+      <c r="P43" s="9" t="n"/>
+      <c r="Q43" s="9" t="n"/>
       <c r="R43" s="9" t="n"/>
-      <c r="S43" s="9" t="n"/>
-      <c r="T43" s="9" t="n"/>
-      <c r="U43" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="44" s="51">
+      <c r="S43" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="44" s="48">
       <c r="A44" s="9" t="n"/>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="26" t="n"/>
-      <c r="E44" s="27" t="n"/>
-      <c r="F44" s="27" t="n"/>
-      <c r="G44" s="27" t="n"/>
-      <c r="H44" s="27" t="n"/>
-      <c r="I44" s="27" t="n"/>
-      <c r="J44" s="27" t="n"/>
-      <c r="K44" s="27" t="n"/>
-      <c r="L44" s="27" t="n"/>
-      <c r="M44" s="27" t="n"/>
-      <c r="N44" s="27" t="n"/>
-      <c r="O44" s="27" t="n"/>
-      <c r="P44" s="28" t="n"/>
-      <c r="Q44" s="38" t="n"/>
+      <c r="B44" s="23" t="n"/>
+      <c r="C44" s="24" t="n"/>
+      <c r="D44" s="24" t="n"/>
+      <c r="E44" s="24" t="n"/>
+      <c r="F44" s="24" t="n"/>
+      <c r="G44" s="24" t="n"/>
+      <c r="H44" s="24" t="n"/>
+      <c r="I44" s="24" t="n"/>
+      <c r="J44" s="24" t="n"/>
+      <c r="K44" s="24" t="n"/>
+      <c r="L44" s="24" t="n"/>
+      <c r="M44" s="24" t="n"/>
+      <c r="N44" s="25" t="n"/>
+      <c r="O44" s="35" t="n"/>
+      <c r="P44" s="9" t="n"/>
+      <c r="Q44" s="9" t="n"/>
       <c r="R44" s="9" t="n"/>
-      <c r="S44" s="9" t="n"/>
-      <c r="T44" s="9" t="n"/>
-      <c r="U44" s="11" t="n"/>
+      <c r="S44" s="11" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="26" t="n"/>
-      <c r="E45" s="27" t="n"/>
-      <c r="F45" s="27" t="n"/>
-      <c r="G45" s="27" t="n"/>
-      <c r="H45" s="27" t="n"/>
-      <c r="I45" s="27" t="n"/>
-      <c r="J45" s="27" t="n"/>
-      <c r="K45" s="27" t="n"/>
-      <c r="L45" s="27" t="n"/>
-      <c r="M45" s="27" t="n"/>
-      <c r="N45" s="27" t="n"/>
-      <c r="O45" s="27" t="n"/>
-      <c r="P45" s="28" t="n"/>
-      <c r="Q45" s="38" t="n"/>
+      <c r="B45" s="23" t="n"/>
+      <c r="C45" s="24" t="n"/>
+      <c r="D45" s="24" t="n"/>
+      <c r="E45" s="24" t="n"/>
+      <c r="F45" s="24" t="n"/>
+      <c r="G45" s="24" t="n"/>
+      <c r="H45" s="24" t="n"/>
+      <c r="I45" s="24" t="n"/>
+      <c r="J45" s="24" t="n"/>
+      <c r="K45" s="24" t="n"/>
+      <c r="L45" s="24" t="n"/>
+      <c r="M45" s="24" t="n"/>
+      <c r="N45" s="25" t="n"/>
+      <c r="O45" s="35" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="26" t="n"/>
-      <c r="E46" s="27" t="n"/>
-      <c r="F46" s="27" t="n"/>
-      <c r="G46" s="27" t="n"/>
-      <c r="H46" s="27" t="n"/>
-      <c r="I46" s="27" t="n"/>
-      <c r="J46" s="27" t="n"/>
-      <c r="K46" s="27" t="n"/>
-      <c r="L46" s="27" t="n"/>
-      <c r="M46" s="27" t="n"/>
-      <c r="N46" s="27" t="n"/>
-      <c r="O46" s="27" t="n"/>
-      <c r="P46" s="28" t="n"/>
-      <c r="Q46" s="38" t="n"/>
+      <c r="B46" s="23" t="n"/>
+      <c r="C46" s="24" t="n"/>
+      <c r="D46" s="24" t="n"/>
+      <c r="E46" s="24" t="n"/>
+      <c r="F46" s="24" t="n"/>
+      <c r="G46" s="24" t="n"/>
+      <c r="H46" s="24" t="n"/>
+      <c r="I46" s="24" t="n"/>
+      <c r="J46" s="24" t="n"/>
+      <c r="K46" s="24" t="n"/>
+      <c r="L46" s="24" t="n"/>
+      <c r="M46" s="24" t="n"/>
+      <c r="N46" s="25" t="n"/>
+      <c r="O46" s="35" t="n"/>
+      <c r="P46" s="9" t="n"/>
+      <c r="Q46" s="9" t="n"/>
       <c r="R46" s="9" t="n"/>
-      <c r="S46" s="9" t="n"/>
-      <c r="T46" s="9" t="n"/>
-      <c r="U46" s="11" t="n"/>
+      <c r="S46" s="11" t="n"/>
     </row>
     <row r="47">
-      <c r="D47" s="26" t="n"/>
-      <c r="E47" s="27" t="n"/>
-      <c r="F47" s="27" t="n"/>
-      <c r="G47" s="27" t="n"/>
-      <c r="H47" s="27" t="n"/>
-      <c r="I47" s="27" t="n"/>
-      <c r="J47" s="27" t="n"/>
-      <c r="K47" s="27" t="n"/>
-      <c r="L47" s="27" t="n"/>
-      <c r="M47" s="27" t="n"/>
-      <c r="N47" s="27" t="n"/>
-      <c r="O47" s="27" t="n"/>
-      <c r="P47" s="28" t="n"/>
-      <c r="Q47" s="38" t="n"/>
+      <c r="B47" s="23" t="n"/>
+      <c r="C47" s="24" t="n"/>
+      <c r="D47" s="24" t="n"/>
+      <c r="E47" s="24" t="n"/>
+      <c r="F47" s="24" t="n"/>
+      <c r="G47" s="24" t="n"/>
+      <c r="H47" s="24" t="n"/>
+      <c r="I47" s="24" t="n"/>
+      <c r="J47" s="24" t="n"/>
+      <c r="K47" s="24" t="n"/>
+      <c r="L47" s="24" t="n"/>
+      <c r="M47" s="24" t="n"/>
+      <c r="N47" s="25" t="n"/>
+      <c r="O47" s="35" t="n"/>
     </row>
     <row r="48">
-      <c r="D48" s="26" t="n"/>
-      <c r="E48" s="27" t="n"/>
-      <c r="F48" s="27" t="n"/>
-      <c r="G48" s="27" t="n"/>
-      <c r="H48" s="27" t="n"/>
-      <c r="I48" s="27" t="n"/>
-      <c r="J48" s="27" t="n"/>
-      <c r="K48" s="27" t="n"/>
-      <c r="L48" s="27" t="n"/>
-      <c r="M48" s="27" t="n"/>
-      <c r="N48" s="27" t="n"/>
-      <c r="O48" s="27" t="n"/>
-      <c r="P48" s="28" t="n"/>
-      <c r="Q48" s="38" t="n"/>
+      <c r="B48" s="23" t="n"/>
+      <c r="C48" s="24" t="n"/>
+      <c r="D48" s="24" t="n"/>
+      <c r="E48" s="24" t="n"/>
+      <c r="F48" s="24" t="n"/>
+      <c r="G48" s="24" t="n"/>
+      <c r="H48" s="24" t="n"/>
+      <c r="I48" s="24" t="n"/>
+      <c r="J48" s="24" t="n"/>
+      <c r="K48" s="24" t="n"/>
+      <c r="L48" s="24" t="n"/>
+      <c r="M48" s="24" t="n"/>
+      <c r="N48" s="25" t="n"/>
+      <c r="O48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="D49" s="26" t="n"/>
-      <c r="E49" s="27" t="n"/>
-      <c r="F49" s="27" t="n"/>
-      <c r="G49" s="27" t="n"/>
-      <c r="H49" s="27" t="n"/>
-      <c r="I49" s="27" t="n"/>
-      <c r="J49" s="27" t="n"/>
-      <c r="K49" s="27" t="n"/>
-      <c r="L49" s="27" t="n"/>
-      <c r="M49" s="27" t="n"/>
-      <c r="N49" s="27" t="n"/>
-      <c r="O49" s="27" t="n"/>
-      <c r="P49" s="28" t="n"/>
-      <c r="Q49" s="38" t="n"/>
+      <c r="B49" s="23" t="n"/>
+      <c r="C49" s="24" t="n"/>
+      <c r="D49" s="24" t="n"/>
+      <c r="E49" s="24" t="n"/>
+      <c r="F49" s="24" t="n"/>
+      <c r="G49" s="24" t="n"/>
+      <c r="H49" s="24" t="n"/>
+      <c r="I49" s="24" t="n"/>
+      <c r="J49" s="24" t="n"/>
+      <c r="K49" s="24" t="n"/>
+      <c r="L49" s="24" t="n"/>
+      <c r="M49" s="24" t="n"/>
+      <c r="N49" s="25" t="n"/>
+      <c r="O49" s="35" t="n"/>
     </row>
     <row r="50">
-      <c r="D50" s="26" t="n"/>
-      <c r="E50" s="27" t="n"/>
-      <c r="F50" s="27" t="n"/>
-      <c r="G50" s="27" t="n"/>
-      <c r="H50" s="27" t="n"/>
-      <c r="I50" s="27" t="n"/>
-      <c r="J50" s="27" t="n"/>
-      <c r="K50" s="27" t="n"/>
-      <c r="L50" s="27" t="n"/>
-      <c r="M50" s="27" t="n"/>
-      <c r="N50" s="27" t="n"/>
-      <c r="O50" s="27" t="n"/>
-      <c r="P50" s="28" t="n"/>
-      <c r="Q50" s="38" t="n"/>
+      <c r="B50" s="23" t="n"/>
+      <c r="C50" s="24" t="n"/>
+      <c r="D50" s="24" t="n"/>
+      <c r="E50" s="24" t="n"/>
+      <c r="F50" s="24" t="n"/>
+      <c r="G50" s="24" t="n"/>
+      <c r="H50" s="24" t="n"/>
+      <c r="I50" s="24" t="n"/>
+      <c r="J50" s="24" t="n"/>
+      <c r="K50" s="24" t="n"/>
+      <c r="L50" s="24" t="n"/>
+      <c r="M50" s="24" t="n"/>
+      <c r="N50" s="25" t="n"/>
+      <c r="O50" s="35" t="n"/>
     </row>
     <row r="51">
-      <c r="D51" s="26" t="n"/>
-      <c r="E51" s="27" t="n"/>
-      <c r="F51" s="27" t="n"/>
-      <c r="G51" s="27" t="n"/>
-      <c r="H51" s="27" t="n"/>
-      <c r="I51" s="27" t="n"/>
-      <c r="J51" s="27" t="n"/>
-      <c r="K51" s="27" t="n"/>
-      <c r="L51" s="27" t="n"/>
-      <c r="M51" s="27" t="n"/>
-      <c r="N51" s="27" t="n"/>
-      <c r="O51" s="27" t="n"/>
-      <c r="P51" s="28" t="n"/>
-      <c r="Q51" s="38" t="n"/>
+      <c r="B51" s="23" t="n"/>
+      <c r="C51" s="24" t="n"/>
+      <c r="D51" s="24" t="n"/>
+      <c r="E51" s="24" t="n"/>
+      <c r="F51" s="24" t="n"/>
+      <c r="G51" s="24" t="n"/>
+      <c r="H51" s="24" t="n"/>
+      <c r="I51" s="24" t="n"/>
+      <c r="J51" s="24" t="n"/>
+      <c r="K51" s="24" t="n"/>
+      <c r="L51" s="24" t="n"/>
+      <c r="M51" s="24" t="n"/>
+      <c r="N51" s="25" t="n"/>
+      <c r="O51" s="35" t="n"/>
     </row>
     <row r="52">
-      <c r="D52" s="26" t="n"/>
-      <c r="E52" s="27" t="n"/>
-      <c r="F52" s="27" t="n"/>
-      <c r="G52" s="27" t="n"/>
-      <c r="H52" s="27" t="n"/>
-      <c r="I52" s="27" t="n"/>
-      <c r="J52" s="27" t="n"/>
-      <c r="K52" s="27" t="n"/>
-      <c r="L52" s="27" t="n"/>
-      <c r="M52" s="27" t="n"/>
-      <c r="N52" s="27" t="n"/>
-      <c r="O52" s="27" t="n"/>
-      <c r="P52" s="28" t="n"/>
-      <c r="Q52" s="38" t="n"/>
+      <c r="B52" s="23" t="n"/>
+      <c r="C52" s="24" t="n"/>
+      <c r="D52" s="24" t="n"/>
+      <c r="E52" s="24" t="n"/>
+      <c r="F52" s="24" t="n"/>
+      <c r="G52" s="24" t="n"/>
+      <c r="H52" s="24" t="n"/>
+      <c r="I52" s="24" t="n"/>
+      <c r="J52" s="24" t="n"/>
+      <c r="K52" s="24" t="n"/>
+      <c r="L52" s="24" t="n"/>
+      <c r="M52" s="24" t="n"/>
+      <c r="N52" s="25" t="n"/>
+      <c r="O52" s="35" t="n"/>
     </row>
     <row r="53">
-      <c r="D53" s="26" t="n"/>
-      <c r="E53" s="27" t="n"/>
-      <c r="F53" s="27" t="n"/>
-      <c r="G53" s="27" t="n"/>
-      <c r="H53" s="27" t="n"/>
-      <c r="I53" s="27" t="n"/>
-      <c r="J53" s="27" t="n"/>
-      <c r="K53" s="27" t="n"/>
-      <c r="L53" s="27" t="n"/>
-      <c r="M53" s="27" t="n"/>
-      <c r="N53" s="27" t="n"/>
-      <c r="O53" s="27" t="n"/>
-      <c r="P53" s="28" t="n"/>
-      <c r="Q53" s="38" t="n"/>
+      <c r="B53" s="23" t="n"/>
+      <c r="C53" s="24" t="n"/>
+      <c r="D53" s="24" t="n"/>
+      <c r="E53" s="24" t="n"/>
+      <c r="F53" s="24" t="n"/>
+      <c r="G53" s="24" t="n"/>
+      <c r="H53" s="24" t="n"/>
+      <c r="I53" s="24" t="n"/>
+      <c r="J53" s="24" t="n"/>
+      <c r="K53" s="24" t="n"/>
+      <c r="L53" s="24" t="n"/>
+      <c r="M53" s="24" t="n"/>
+      <c r="N53" s="25" t="n"/>
+      <c r="O53" s="35" t="n"/>
     </row>
     <row r="54">
-      <c r="D54" s="26" t="n"/>
-      <c r="E54" s="27" t="n"/>
-      <c r="F54" s="27" t="n"/>
-      <c r="G54" s="27" t="n"/>
-      <c r="H54" s="27" t="n"/>
-      <c r="I54" s="27" t="n"/>
-      <c r="J54" s="27" t="n"/>
-      <c r="K54" s="27" t="n"/>
-      <c r="L54" s="27" t="n"/>
-      <c r="M54" s="27" t="n"/>
-      <c r="N54" s="27" t="n"/>
-      <c r="O54" s="27" t="n"/>
-      <c r="P54" s="28" t="n"/>
-      <c r="Q54" s="38" t="n"/>
+      <c r="B54" s="23" t="n"/>
+      <c r="C54" s="24" t="n"/>
+      <c r="D54" s="24" t="n"/>
+      <c r="E54" s="24" t="n"/>
+      <c r="F54" s="24" t="n"/>
+      <c r="G54" s="24" t="n"/>
+      <c r="H54" s="24" t="n"/>
+      <c r="I54" s="24" t="n"/>
+      <c r="J54" s="24" t="n"/>
+      <c r="K54" s="24" t="n"/>
+      <c r="L54" s="24" t="n"/>
+      <c r="M54" s="24" t="n"/>
+      <c r="N54" s="25" t="n"/>
+      <c r="O54" s="35" t="n"/>
     </row>
     <row r="55">
-      <c r="D55" s="26" t="n"/>
-      <c r="E55" s="27" t="n"/>
-      <c r="F55" s="27" t="n"/>
-      <c r="G55" s="27" t="n"/>
-      <c r="H55" s="27" t="n"/>
-      <c r="I55" s="27" t="n"/>
-      <c r="J55" s="27" t="n"/>
-      <c r="K55" s="27" t="n"/>
-      <c r="L55" s="27" t="n"/>
-      <c r="M55" s="27" t="n"/>
-      <c r="N55" s="27" t="n"/>
-      <c r="O55" s="27" t="n"/>
-      <c r="P55" s="28" t="n"/>
-      <c r="Q55" s="38" t="n"/>
+      <c r="B55" s="23" t="n"/>
+      <c r="C55" s="24" t="n"/>
+      <c r="D55" s="24" t="n"/>
+      <c r="E55" s="24" t="n"/>
+      <c r="F55" s="24" t="n"/>
+      <c r="G55" s="24" t="n"/>
+      <c r="H55" s="24" t="n"/>
+      <c r="I55" s="24" t="n"/>
+      <c r="J55" s="24" t="n"/>
+      <c r="K55" s="24" t="n"/>
+      <c r="L55" s="24" t="n"/>
+      <c r="M55" s="24" t="n"/>
+      <c r="N55" s="25" t="n"/>
+      <c r="O55" s="35" t="n"/>
     </row>
     <row r="56">
-      <c r="D56" s="26" t="n"/>
-      <c r="E56" s="27" t="n"/>
-      <c r="F56" s="27" t="n"/>
-      <c r="G56" s="27" t="n"/>
-      <c r="H56" s="27" t="n"/>
-      <c r="I56" s="27" t="n"/>
-      <c r="J56" s="27" t="n"/>
-      <c r="K56" s="27" t="n"/>
-      <c r="L56" s="27" t="n"/>
-      <c r="M56" s="27" t="n"/>
-      <c r="N56" s="27" t="n"/>
-      <c r="O56" s="27" t="n"/>
-      <c r="P56" s="28" t="n"/>
-      <c r="Q56" s="38" t="n"/>
+      <c r="B56" s="23" t="n"/>
+      <c r="C56" s="24" t="n"/>
+      <c r="D56" s="24" t="n"/>
+      <c r="E56" s="24" t="n"/>
+      <c r="F56" s="24" t="n"/>
+      <c r="G56" s="24" t="n"/>
+      <c r="H56" s="24" t="n"/>
+      <c r="I56" s="24" t="n"/>
+      <c r="J56" s="24" t="n"/>
+      <c r="K56" s="24" t="n"/>
+      <c r="L56" s="24" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="25" t="n"/>
+      <c r="O56" s="35" t="n"/>
     </row>
     <row r="57">
-      <c r="D57" s="26" t="n"/>
-      <c r="E57" s="27" t="n"/>
-      <c r="F57" s="27" t="n"/>
-      <c r="G57" s="27" t="n"/>
-      <c r="H57" s="27" t="n"/>
-      <c r="I57" s="27" t="n"/>
-      <c r="J57" s="27" t="n"/>
-      <c r="K57" s="27" t="n"/>
-      <c r="L57" s="27" t="n"/>
-      <c r="M57" s="27" t="n"/>
-      <c r="N57" s="27" t="n"/>
-      <c r="O57" s="27" t="n"/>
-      <c r="P57" s="28" t="n"/>
-      <c r="Q57" s="38" t="n"/>
+      <c r="B57" s="23" t="n"/>
+      <c r="C57" s="24" t="n"/>
+      <c r="D57" s="24" t="n"/>
+      <c r="E57" s="24" t="n"/>
+      <c r="F57" s="24" t="n"/>
+      <c r="G57" s="24" t="n"/>
+      <c r="H57" s="24" t="n"/>
+      <c r="I57" s="24" t="n"/>
+      <c r="J57" s="24" t="n"/>
+      <c r="K57" s="24" t="n"/>
+      <c r="L57" s="24" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="25" t="n"/>
+      <c r="O57" s="35" t="n"/>
     </row>
     <row r="58">
-      <c r="D58" s="26" t="n"/>
-      <c r="E58" s="27" t="n"/>
-      <c r="F58" s="27" t="n"/>
-      <c r="G58" s="27" t="n"/>
-      <c r="H58" s="27" t="n"/>
-      <c r="I58" s="27" t="n"/>
-      <c r="J58" s="27" t="n"/>
-      <c r="K58" s="27" t="n"/>
-      <c r="L58" s="27" t="n"/>
-      <c r="M58" s="27" t="n"/>
-      <c r="N58" s="27" t="n"/>
-      <c r="O58" s="27" t="n"/>
-      <c r="P58" s="28" t="n"/>
-      <c r="Q58" s="38" t="n"/>
+      <c r="B58" s="23" t="n"/>
+      <c r="C58" s="24" t="n"/>
+      <c r="D58" s="24" t="n"/>
+      <c r="E58" s="24" t="n"/>
+      <c r="F58" s="24" t="n"/>
+      <c r="G58" s="24" t="n"/>
+      <c r="H58" s="24" t="n"/>
+      <c r="I58" s="24" t="n"/>
+      <c r="J58" s="24" t="n"/>
+      <c r="K58" s="24" t="n"/>
+      <c r="L58" s="24" t="n"/>
+      <c r="M58" s="24" t="n"/>
+      <c r="N58" s="25" t="n"/>
+      <c r="O58" s="35" t="n"/>
     </row>
     <row r="59">
-      <c r="D59" s="26" t="n"/>
-      <c r="E59" s="27" t="n"/>
-      <c r="F59" s="27" t="n"/>
-      <c r="G59" s="27" t="n"/>
-      <c r="H59" s="27" t="n"/>
-      <c r="I59" s="27" t="n"/>
-      <c r="J59" s="27" t="n"/>
-      <c r="K59" s="27" t="n"/>
-      <c r="L59" s="27" t="n"/>
-      <c r="M59" s="27" t="n"/>
-      <c r="N59" s="27" t="n"/>
-      <c r="O59" s="27" t="n"/>
-      <c r="P59" s="28" t="n"/>
-      <c r="Q59" s="38" t="n"/>
+      <c r="B59" s="23" t="n"/>
+      <c r="C59" s="24" t="n"/>
+      <c r="D59" s="24" t="n"/>
+      <c r="E59" s="24" t="n"/>
+      <c r="F59" s="24" t="n"/>
+      <c r="G59" s="24" t="n"/>
+      <c r="H59" s="24" t="n"/>
+      <c r="I59" s="24" t="n"/>
+      <c r="J59" s="24" t="n"/>
+      <c r="K59" s="24" t="n"/>
+      <c r="L59" s="24" t="n"/>
+      <c r="M59" s="24" t="n"/>
+      <c r="N59" s="25" t="n"/>
+      <c r="O59" s="35" t="n"/>
     </row>
     <row r="60">
-      <c r="D60" s="26" t="n"/>
-      <c r="E60" s="27" t="n"/>
-      <c r="F60" s="27" t="n"/>
-      <c r="G60" s="27" t="n"/>
-      <c r="H60" s="27" t="n"/>
-      <c r="I60" s="27" t="n"/>
-      <c r="J60" s="27" t="n"/>
-      <c r="K60" s="27" t="n"/>
-      <c r="L60" s="27" t="n"/>
-      <c r="M60" s="27" t="n"/>
-      <c r="N60" s="27" t="n"/>
-      <c r="O60" s="27" t="n"/>
-      <c r="P60" s="28" t="n"/>
-      <c r="Q60" s="38" t="n"/>
+      <c r="B60" s="23" t="n"/>
+      <c r="C60" s="24" t="n"/>
+      <c r="D60" s="24" t="n"/>
+      <c r="E60" s="24" t="n"/>
+      <c r="F60" s="24" t="n"/>
+      <c r="G60" s="24" t="n"/>
+      <c r="H60" s="24" t="n"/>
+      <c r="I60" s="24" t="n"/>
+      <c r="J60" s="24" t="n"/>
+      <c r="K60" s="24" t="n"/>
+      <c r="L60" s="24" t="n"/>
+      <c r="M60" s="24" t="n"/>
+      <c r="N60" s="25" t="n"/>
+      <c r="O60" s="35" t="n"/>
     </row>
     <row r="61">
-      <c r="D61" s="26" t="n"/>
-      <c r="E61" s="27" t="n"/>
-      <c r="F61" s="27" t="n"/>
-      <c r="G61" s="27" t="n"/>
-      <c r="H61" s="27" t="n"/>
-      <c r="I61" s="27" t="n"/>
-      <c r="J61" s="27" t="n"/>
-      <c r="K61" s="27" t="n"/>
-      <c r="L61" s="27" t="n"/>
-      <c r="M61" s="27" t="n"/>
-      <c r="N61" s="27" t="n"/>
-      <c r="O61" s="27" t="n"/>
-      <c r="P61" s="28" t="n"/>
-      <c r="Q61" s="38" t="n"/>
+      <c r="B61" s="23" t="n"/>
+      <c r="C61" s="24" t="n"/>
+      <c r="D61" s="24" t="n"/>
+      <c r="E61" s="24" t="n"/>
+      <c r="F61" s="24" t="n"/>
+      <c r="G61" s="24" t="n"/>
+      <c r="H61" s="24" t="n"/>
+      <c r="I61" s="24" t="n"/>
+      <c r="J61" s="24" t="n"/>
+      <c r="K61" s="24" t="n"/>
+      <c r="L61" s="24" t="n"/>
+      <c r="M61" s="24" t="n"/>
+      <c r="N61" s="25" t="n"/>
+      <c r="O61" s="35" t="n"/>
     </row>
     <row r="62">
-      <c r="D62" s="26" t="n"/>
-      <c r="E62" s="27" t="n"/>
-      <c r="F62" s="27" t="n"/>
-      <c r="G62" s="27" t="n"/>
-      <c r="H62" s="27" t="n"/>
-      <c r="I62" s="27" t="n"/>
-      <c r="J62" s="27" t="n"/>
-      <c r="K62" s="27" t="n"/>
-      <c r="L62" s="27" t="n"/>
-      <c r="M62" s="27" t="n"/>
-      <c r="N62" s="27" t="n"/>
-      <c r="O62" s="27" t="n"/>
-      <c r="P62" s="28" t="n"/>
-      <c r="Q62" s="38" t="n"/>
+      <c r="B62" s="23" t="n"/>
+      <c r="C62" s="24" t="n"/>
+      <c r="D62" s="24" t="n"/>
+      <c r="E62" s="24" t="n"/>
+      <c r="F62" s="24" t="n"/>
+      <c r="G62" s="24" t="n"/>
+      <c r="H62" s="24" t="n"/>
+      <c r="I62" s="24" t="n"/>
+      <c r="J62" s="24" t="n"/>
+      <c r="K62" s="24" t="n"/>
+      <c r="L62" s="24" t="n"/>
+      <c r="M62" s="24" t="n"/>
+      <c r="N62" s="25" t="n"/>
+      <c r="O62" s="35" t="n"/>
     </row>
     <row r="63">
-      <c r="D63" s="26" t="n"/>
-      <c r="E63" s="27" t="n"/>
-      <c r="F63" s="27" t="n"/>
-      <c r="G63" s="27" t="n"/>
-      <c r="H63" s="27" t="n"/>
-      <c r="I63" s="27" t="n"/>
-      <c r="J63" s="27" t="n"/>
-      <c r="K63" s="27" t="n"/>
-      <c r="L63" s="27" t="n"/>
-      <c r="M63" s="27" t="n"/>
-      <c r="N63" s="27" t="n"/>
-      <c r="O63" s="27" t="n"/>
-      <c r="P63" s="28" t="n"/>
-      <c r="Q63" s="38" t="n"/>
+      <c r="B63" s="23" t="n"/>
+      <c r="C63" s="24" t="n"/>
+      <c r="D63" s="24" t="n"/>
+      <c r="E63" s="24" t="n"/>
+      <c r="F63" s="24" t="n"/>
+      <c r="G63" s="24" t="n"/>
+      <c r="H63" s="24" t="n"/>
+      <c r="I63" s="24" t="n"/>
+      <c r="J63" s="24" t="n"/>
+      <c r="K63" s="24" t="n"/>
+      <c r="L63" s="24" t="n"/>
+      <c r="M63" s="24" t="n"/>
+      <c r="N63" s="25" t="n"/>
+      <c r="O63" s="35" t="n"/>
     </row>
     <row r="64">
-      <c r="D64" s="26" t="n"/>
-      <c r="E64" s="27" t="n"/>
-      <c r="F64" s="27" t="n"/>
-      <c r="G64" s="27" t="n"/>
-      <c r="H64" s="27" t="n"/>
-      <c r="I64" s="27" t="n"/>
-      <c r="J64" s="27" t="n"/>
-      <c r="K64" s="27" t="n"/>
-      <c r="L64" s="27" t="n"/>
-      <c r="M64" s="27" t="n"/>
-      <c r="N64" s="27" t="n"/>
-      <c r="O64" s="27" t="n"/>
-      <c r="P64" s="28" t="n"/>
-      <c r="Q64" s="38" t="n"/>
+      <c r="B64" s="23" t="n"/>
+      <c r="C64" s="24" t="n"/>
+      <c r="D64" s="24" t="n"/>
+      <c r="E64" s="24" t="n"/>
+      <c r="F64" s="24" t="n"/>
+      <c r="G64" s="24" t="n"/>
+      <c r="H64" s="24" t="n"/>
+      <c r="I64" s="24" t="n"/>
+      <c r="J64" s="24" t="n"/>
+      <c r="K64" s="24" t="n"/>
+      <c r="L64" s="24" t="n"/>
+      <c r="M64" s="24" t="n"/>
+      <c r="N64" s="25" t="n"/>
+      <c r="O64" s="35" t="n"/>
     </row>
     <row r="65">
-      <c r="D65" s="26" t="n"/>
-      <c r="E65" s="27" t="n"/>
-      <c r="F65" s="27" t="n"/>
-      <c r="G65" s="27" t="n"/>
-      <c r="H65" s="27" t="n"/>
-      <c r="I65" s="27" t="n"/>
-      <c r="J65" s="27" t="n"/>
-      <c r="K65" s="27" t="n"/>
-      <c r="L65" s="27" t="n"/>
-      <c r="M65" s="27" t="n"/>
-      <c r="N65" s="27" t="n"/>
-      <c r="O65" s="27" t="n"/>
-      <c r="P65" s="28" t="n"/>
-      <c r="Q65" s="38" t="n"/>
+      <c r="B65" s="23" t="n"/>
+      <c r="C65" s="24" t="n"/>
+      <c r="D65" s="24" t="n"/>
+      <c r="E65" s="24" t="n"/>
+      <c r="F65" s="24" t="n"/>
+      <c r="G65" s="24" t="n"/>
+      <c r="H65" s="24" t="n"/>
+      <c r="I65" s="24" t="n"/>
+      <c r="J65" s="24" t="n"/>
+      <c r="K65" s="24" t="n"/>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
+      <c r="N65" s="25" t="n"/>
+      <c r="O65" s="35" t="n"/>
     </row>
     <row r="66">
-      <c r="D66" s="26" t="n"/>
-      <c r="E66" s="27" t="n"/>
-      <c r="F66" s="27" t="n"/>
-      <c r="G66" s="27" t="n"/>
-      <c r="H66" s="27" t="n"/>
-      <c r="I66" s="27" t="n"/>
-      <c r="J66" s="27" t="n"/>
-      <c r="K66" s="27" t="n"/>
-      <c r="L66" s="27" t="n"/>
-      <c r="M66" s="27" t="n"/>
-      <c r="N66" s="27" t="n"/>
-      <c r="O66" s="27" t="n"/>
-      <c r="P66" s="28" t="n"/>
-      <c r="Q66" s="38" t="n"/>
+      <c r="B66" s="23" t="n"/>
+      <c r="C66" s="24" t="n"/>
+      <c r="D66" s="24" t="n"/>
+      <c r="E66" s="24" t="n"/>
+      <c r="F66" s="24" t="n"/>
+      <c r="G66" s="24" t="n"/>
+      <c r="H66" s="24" t="n"/>
+      <c r="I66" s="24" t="n"/>
+      <c r="J66" s="24" t="n"/>
+      <c r="K66" s="24" t="n"/>
+      <c r="L66" s="24" t="n"/>
+      <c r="M66" s="24" t="n"/>
+      <c r="N66" s="25" t="n"/>
+      <c r="O66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="D67" s="26" t="n"/>
-      <c r="E67" s="27" t="n"/>
-      <c r="F67" s="27" t="n"/>
-      <c r="G67" s="27" t="n"/>
-      <c r="H67" s="27" t="n"/>
-      <c r="I67" s="27" t="n"/>
-      <c r="J67" s="27" t="n"/>
-      <c r="K67" s="27" t="n"/>
-      <c r="L67" s="27" t="n"/>
-      <c r="M67" s="27" t="n"/>
-      <c r="N67" s="27" t="n"/>
-      <c r="O67" s="27" t="n"/>
-      <c r="P67" s="28" t="n"/>
-      <c r="Q67" s="38" t="n"/>
+      <c r="B67" s="23" t="n"/>
+      <c r="C67" s="24" t="n"/>
+      <c r="D67" s="24" t="n"/>
+      <c r="E67" s="24" t="n"/>
+      <c r="F67" s="24" t="n"/>
+      <c r="G67" s="24" t="n"/>
+      <c r="H67" s="24" t="n"/>
+      <c r="I67" s="24" t="n"/>
+      <c r="J67" s="24" t="n"/>
+      <c r="K67" s="24" t="n"/>
+      <c r="L67" s="24" t="n"/>
+      <c r="M67" s="24" t="n"/>
+      <c r="N67" s="25" t="n"/>
+      <c r="O67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="D68" s="26" t="n"/>
-      <c r="E68" s="27" t="n"/>
-      <c r="F68" s="27" t="n"/>
-      <c r="G68" s="27" t="n"/>
-      <c r="H68" s="27" t="n"/>
-      <c r="I68" s="27" t="n"/>
-      <c r="J68" s="27" t="n"/>
-      <c r="K68" s="27" t="n"/>
-      <c r="L68" s="27" t="n"/>
-      <c r="M68" s="27" t="n"/>
-      <c r="N68" s="27" t="n"/>
-      <c r="O68" s="27" t="n"/>
-      <c r="P68" s="28" t="n"/>
-      <c r="Q68" s="38" t="n"/>
+      <c r="B68" s="23" t="n"/>
+      <c r="C68" s="24" t="n"/>
+      <c r="D68" s="24" t="n"/>
+      <c r="E68" s="24" t="n"/>
+      <c r="F68" s="24" t="n"/>
+      <c r="G68" s="24" t="n"/>
+      <c r="H68" s="24" t="n"/>
+      <c r="I68" s="24" t="n"/>
+      <c r="J68" s="24" t="n"/>
+      <c r="K68" s="24" t="n"/>
+      <c r="L68" s="24" t="n"/>
+      <c r="M68" s="24" t="n"/>
+      <c r="N68" s="25" t="n"/>
+      <c r="O68" s="35" t="n"/>
     </row>
     <row r="69">
-      <c r="D69" s="26" t="n"/>
-      <c r="E69" s="27" t="n"/>
-      <c r="F69" s="27" t="n"/>
-      <c r="G69" s="27" t="n"/>
-      <c r="H69" s="27" t="n"/>
-      <c r="I69" s="27" t="n"/>
-      <c r="J69" s="27" t="n"/>
-      <c r="K69" s="27" t="n"/>
-      <c r="L69" s="27" t="n"/>
-      <c r="M69" s="27" t="n"/>
-      <c r="N69" s="27" t="n"/>
-      <c r="O69" s="27" t="n"/>
-      <c r="P69" s="28" t="n"/>
-      <c r="Q69" s="38" t="n"/>
+      <c r="B69" s="23" t="n"/>
+      <c r="C69" s="24" t="n"/>
+      <c r="D69" s="24" t="n"/>
+      <c r="E69" s="24" t="n"/>
+      <c r="F69" s="24" t="n"/>
+      <c r="G69" s="24" t="n"/>
+      <c r="H69" s="24" t="n"/>
+      <c r="I69" s="24" t="n"/>
+      <c r="J69" s="24" t="n"/>
+      <c r="K69" s="24" t="n"/>
+      <c r="L69" s="24" t="n"/>
+      <c r="M69" s="24" t="n"/>
+      <c r="N69" s="25" t="n"/>
+      <c r="O69" s="35" t="n"/>
     </row>
     <row r="70">
-      <c r="D70" s="26" t="n"/>
-      <c r="E70" s="27" t="n"/>
-      <c r="F70" s="27" t="n"/>
-      <c r="G70" s="27" t="n"/>
-      <c r="H70" s="27" t="n"/>
-      <c r="I70" s="27" t="n"/>
-      <c r="J70" s="27" t="n"/>
-      <c r="K70" s="27" t="n"/>
-      <c r="L70" s="27" t="n"/>
-      <c r="M70" s="27" t="n"/>
-      <c r="N70" s="27" t="n"/>
-      <c r="O70" s="27" t="n"/>
-      <c r="P70" s="28" t="n"/>
-      <c r="Q70" s="38" t="n"/>
+      <c r="B70" s="23" t="n"/>
+      <c r="C70" s="24" t="n"/>
+      <c r="D70" s="24" t="n"/>
+      <c r="E70" s="24" t="n"/>
+      <c r="F70" s="24" t="n"/>
+      <c r="G70" s="24" t="n"/>
+      <c r="H70" s="24" t="n"/>
+      <c r="I70" s="24" t="n"/>
+      <c r="J70" s="24" t="n"/>
+      <c r="K70" s="24" t="n"/>
+      <c r="L70" s="24" t="n"/>
+      <c r="M70" s="24" t="n"/>
+      <c r="N70" s="25" t="n"/>
+      <c r="O70" s="35" t="n"/>
     </row>
     <row r="71">
-      <c r="D71" s="26" t="n"/>
-      <c r="E71" s="27" t="n"/>
-      <c r="F71" s="27" t="n"/>
-      <c r="G71" s="27" t="n"/>
-      <c r="H71" s="27" t="n"/>
-      <c r="I71" s="27" t="n"/>
-      <c r="J71" s="27" t="n"/>
-      <c r="K71" s="27" t="n"/>
-      <c r="L71" s="27" t="n"/>
-      <c r="M71" s="27" t="n"/>
-      <c r="N71" s="27" t="n"/>
-      <c r="O71" s="27" t="n"/>
-      <c r="P71" s="28" t="n"/>
-      <c r="Q71" s="38" t="n"/>
+      <c r="B71" s="23" t="n"/>
+      <c r="C71" s="24" t="n"/>
+      <c r="D71" s="24" t="n"/>
+      <c r="E71" s="24" t="n"/>
+      <c r="F71" s="24" t="n"/>
+      <c r="G71" s="24" t="n"/>
+      <c r="H71" s="24" t="n"/>
+      <c r="I71" s="24" t="n"/>
+      <c r="J71" s="24" t="n"/>
+      <c r="K71" s="24" t="n"/>
+      <c r="L71" s="24" t="n"/>
+      <c r="M71" s="24" t="n"/>
+      <c r="N71" s="25" t="n"/>
+      <c r="O71" s="35" t="n"/>
     </row>
     <row r="72">
-      <c r="D72" s="26" t="n"/>
-      <c r="E72" s="27" t="n"/>
-      <c r="F72" s="27" t="n"/>
-      <c r="G72" s="27" t="n"/>
-      <c r="H72" s="27" t="n"/>
-      <c r="I72" s="27" t="n"/>
-      <c r="J72" s="27" t="n"/>
-      <c r="K72" s="27" t="n"/>
-      <c r="L72" s="27" t="n"/>
-      <c r="M72" s="27" t="n"/>
-      <c r="N72" s="27" t="n"/>
-      <c r="O72" s="27" t="n"/>
-      <c r="P72" s="28" t="n"/>
-      <c r="Q72" s="38" t="n"/>
+      <c r="B72" s="23" t="n"/>
+      <c r="C72" s="24" t="n"/>
+      <c r="D72" s="24" t="n"/>
+      <c r="E72" s="24" t="n"/>
+      <c r="F72" s="24" t="n"/>
+      <c r="G72" s="24" t="n"/>
+      <c r="H72" s="24" t="n"/>
+      <c r="I72" s="24" t="n"/>
+      <c r="J72" s="24" t="n"/>
+      <c r="K72" s="24" t="n"/>
+      <c r="L72" s="24" t="n"/>
+      <c r="M72" s="24" t="n"/>
+      <c r="N72" s="25" t="n"/>
+      <c r="O72" s="35" t="n"/>
     </row>
     <row r="73">
-      <c r="D73" s="26" t="n"/>
-      <c r="E73" s="27" t="n"/>
-      <c r="F73" s="27" t="n"/>
-      <c r="G73" s="27" t="n"/>
-      <c r="H73" s="27" t="n"/>
-      <c r="I73" s="27" t="n"/>
-      <c r="J73" s="27" t="n"/>
-      <c r="K73" s="27" t="n"/>
-      <c r="L73" s="27" t="n"/>
-      <c r="M73" s="27" t="n"/>
-      <c r="N73" s="27" t="n"/>
-      <c r="O73" s="27" t="n"/>
-      <c r="P73" s="28" t="n"/>
-      <c r="Q73" s="38" t="n"/>
+      <c r="B73" s="23" t="n"/>
+      <c r="C73" s="24" t="n"/>
+      <c r="D73" s="24" t="n"/>
+      <c r="E73" s="24" t="n"/>
+      <c r="F73" s="24" t="n"/>
+      <c r="G73" s="24" t="n"/>
+      <c r="H73" s="24" t="n"/>
+      <c r="I73" s="24" t="n"/>
+      <c r="J73" s="24" t="n"/>
+      <c r="K73" s="24" t="n"/>
+      <c r="L73" s="24" t="n"/>
+      <c r="M73" s="24" t="n"/>
+      <c r="N73" s="25" t="n"/>
+      <c r="O73" s="35" t="n"/>
     </row>
     <row r="74">
-      <c r="D74" s="26" t="n"/>
-      <c r="E74" s="27" t="n"/>
-      <c r="F74" s="27" t="n"/>
-      <c r="G74" s="27" t="n"/>
-      <c r="H74" s="27" t="n"/>
-      <c r="I74" s="27" t="n"/>
-      <c r="J74" s="27" t="n"/>
-      <c r="K74" s="27" t="n"/>
-      <c r="L74" s="27" t="n"/>
-      <c r="M74" s="27" t="n"/>
-      <c r="N74" s="27" t="n"/>
-      <c r="O74" s="27" t="n"/>
-      <c r="P74" s="28" t="n"/>
-      <c r="Q74" s="38" t="n"/>
+      <c r="B74" s="23" t="n"/>
+      <c r="C74" s="24" t="n"/>
+      <c r="D74" s="24" t="n"/>
+      <c r="E74" s="24" t="n"/>
+      <c r="F74" s="24" t="n"/>
+      <c r="G74" s="24" t="n"/>
+      <c r="H74" s="24" t="n"/>
+      <c r="I74" s="24" t="n"/>
+      <c r="J74" s="24" t="n"/>
+      <c r="K74" s="24" t="n"/>
+      <c r="L74" s="24" t="n"/>
+      <c r="M74" s="24" t="n"/>
+      <c r="N74" s="25" t="n"/>
+      <c r="O74" s="35" t="n"/>
     </row>
     <row r="75">
-      <c r="D75" s="26" t="n"/>
-      <c r="E75" s="27" t="n"/>
-      <c r="F75" s="27" t="n"/>
-      <c r="G75" s="27" t="n"/>
-      <c r="H75" s="27" t="n"/>
-      <c r="I75" s="27" t="n"/>
-      <c r="J75" s="27" t="n"/>
-      <c r="K75" s="27" t="n"/>
-      <c r="L75" s="27" t="n"/>
-      <c r="M75" s="27" t="n"/>
-      <c r="N75" s="27" t="n"/>
-      <c r="O75" s="27" t="n"/>
-      <c r="P75" s="28" t="n"/>
-      <c r="Q75" s="38" t="n"/>
+      <c r="B75" s="23" t="n"/>
+      <c r="C75" s="24" t="n"/>
+      <c r="D75" s="24" t="n"/>
+      <c r="E75" s="24" t="n"/>
+      <c r="F75" s="24" t="n"/>
+      <c r="G75" s="24" t="n"/>
+      <c r="H75" s="24" t="n"/>
+      <c r="I75" s="24" t="n"/>
+      <c r="J75" s="24" t="n"/>
+      <c r="K75" s="24" t="n"/>
+      <c r="L75" s="24" t="n"/>
+      <c r="M75" s="24" t="n"/>
+      <c r="N75" s="25" t="n"/>
+      <c r="O75" s="35" t="n"/>
     </row>
     <row r="76">
-      <c r="D76" s="26" t="n"/>
-      <c r="E76" s="27" t="n"/>
-      <c r="F76" s="27" t="n"/>
-      <c r="G76" s="27" t="n"/>
-      <c r="H76" s="27" t="n"/>
-      <c r="I76" s="27" t="n"/>
-      <c r="J76" s="27" t="n"/>
-      <c r="K76" s="27" t="n"/>
-      <c r="L76" s="27" t="n"/>
-      <c r="M76" s="27" t="n"/>
-      <c r="N76" s="27" t="n"/>
-      <c r="O76" s="27" t="n"/>
-      <c r="P76" s="28" t="n"/>
-      <c r="Q76" s="38" t="n"/>
+      <c r="B76" s="23" t="n"/>
+      <c r="C76" s="24" t="n"/>
+      <c r="D76" s="24" t="n"/>
+      <c r="E76" s="24" t="n"/>
+      <c r="F76" s="24" t="n"/>
+      <c r="G76" s="24" t="n"/>
+      <c r="H76" s="24" t="n"/>
+      <c r="I76" s="24" t="n"/>
+      <c r="J76" s="24" t="n"/>
+      <c r="K76" s="24" t="n"/>
+      <c r="L76" s="24" t="n"/>
+      <c r="M76" s="24" t="n"/>
+      <c r="N76" s="25" t="n"/>
+      <c r="O76" s="35" t="n"/>
     </row>
     <row r="77">
-      <c r="D77" s="26" t="n"/>
-      <c r="E77" s="27" t="n"/>
-      <c r="F77" s="27" t="n"/>
-      <c r="G77" s="27" t="n"/>
-      <c r="H77" s="27" t="n"/>
-      <c r="I77" s="27" t="n"/>
-      <c r="J77" s="27" t="n"/>
-      <c r="K77" s="27" t="n"/>
-      <c r="L77" s="27" t="n"/>
-      <c r="M77" s="27" t="n"/>
-      <c r="N77" s="27" t="n"/>
-      <c r="O77" s="27" t="n"/>
-      <c r="P77" s="28" t="n"/>
-      <c r="Q77" s="38" t="n"/>
+      <c r="B77" s="23" t="n"/>
+      <c r="C77" s="24" t="n"/>
+      <c r="D77" s="24" t="n"/>
+      <c r="E77" s="24" t="n"/>
+      <c r="F77" s="24" t="n"/>
+      <c r="G77" s="24" t="n"/>
+      <c r="H77" s="24" t="n"/>
+      <c r="I77" s="24" t="n"/>
+      <c r="J77" s="24" t="n"/>
+      <c r="K77" s="24" t="n"/>
+      <c r="L77" s="24" t="n"/>
+      <c r="M77" s="24" t="n"/>
+      <c r="N77" s="25" t="n"/>
+      <c r="O77" s="35" t="n"/>
     </row>
     <row r="78">
-      <c r="D78" s="26" t="n"/>
-      <c r="E78" s="27" t="n"/>
-      <c r="F78" s="27" t="n"/>
-      <c r="G78" s="27" t="n"/>
-      <c r="H78" s="27" t="n"/>
-      <c r="I78" s="27" t="n"/>
-      <c r="J78" s="27" t="n"/>
-      <c r="K78" s="27" t="n"/>
-      <c r="L78" s="27" t="n"/>
-      <c r="M78" s="27" t="n"/>
-      <c r="N78" s="27" t="n"/>
-      <c r="O78" s="27" t="n"/>
-      <c r="P78" s="28" t="n"/>
-      <c r="Q78" s="38" t="n"/>
+      <c r="B78" s="23" t="n"/>
+      <c r="C78" s="24" t="n"/>
+      <c r="D78" s="24" t="n"/>
+      <c r="E78" s="24" t="n"/>
+      <c r="F78" s="24" t="n"/>
+      <c r="G78" s="24" t="n"/>
+      <c r="H78" s="24" t="n"/>
+      <c r="I78" s="24" t="n"/>
+      <c r="J78" s="24" t="n"/>
+      <c r="K78" s="24" t="n"/>
+      <c r="L78" s="24" t="n"/>
+      <c r="M78" s="24" t="n"/>
+      <c r="N78" s="25" t="n"/>
+      <c r="O78" s="35" t="n"/>
     </row>
     <row r="79">
-      <c r="D79" s="26" t="n"/>
-      <c r="E79" s="27" t="n"/>
-      <c r="F79" s="27" t="n"/>
-      <c r="G79" s="27" t="n"/>
-      <c r="H79" s="27" t="n"/>
-      <c r="I79" s="27" t="n"/>
-      <c r="J79" s="27" t="n"/>
-      <c r="K79" s="27" t="n"/>
-      <c r="L79" s="27" t="n"/>
-      <c r="M79" s="27" t="n"/>
-      <c r="N79" s="27" t="n"/>
-      <c r="O79" s="27" t="n"/>
-      <c r="P79" s="28" t="n"/>
-      <c r="Q79" s="38" t="n"/>
+      <c r="B79" s="23" t="n"/>
+      <c r="C79" s="24" t="n"/>
+      <c r="D79" s="24" t="n"/>
+      <c r="E79" s="24" t="n"/>
+      <c r="F79" s="24" t="n"/>
+      <c r="G79" s="24" t="n"/>
+      <c r="H79" s="24" t="n"/>
+      <c r="I79" s="24" t="n"/>
+      <c r="J79" s="24" t="n"/>
+      <c r="K79" s="24" t="n"/>
+      <c r="L79" s="24" t="n"/>
+      <c r="M79" s="24" t="n"/>
+      <c r="N79" s="25" t="n"/>
+      <c r="O79" s="35" t="n"/>
     </row>
     <row r="80">
-      <c r="D80" s="26" t="n"/>
-      <c r="E80" s="27" t="n"/>
-      <c r="F80" s="27" t="n"/>
-      <c r="G80" s="27" t="n"/>
-      <c r="H80" s="27" t="n"/>
-      <c r="I80" s="27" t="n"/>
-      <c r="J80" s="27" t="n"/>
-      <c r="K80" s="27" t="n"/>
-      <c r="L80" s="27" t="n"/>
-      <c r="M80" s="27" t="n"/>
-      <c r="N80" s="27" t="n"/>
-      <c r="O80" s="27" t="n"/>
-      <c r="P80" s="28" t="n"/>
-      <c r="Q80" s="38" t="n"/>
+      <c r="B80" s="23" t="n"/>
+      <c r="C80" s="24" t="n"/>
+      <c r="D80" s="24" t="n"/>
+      <c r="E80" s="24" t="n"/>
+      <c r="F80" s="24" t="n"/>
+      <c r="G80" s="24" t="n"/>
+      <c r="H80" s="24" t="n"/>
+      <c r="I80" s="24" t="n"/>
+      <c r="J80" s="24" t="n"/>
+      <c r="K80" s="24" t="n"/>
+      <c r="L80" s="24" t="n"/>
+      <c r="M80" s="24" t="n"/>
+      <c r="N80" s="25" t="n"/>
+      <c r="O80" s="35" t="n"/>
     </row>
     <row r="81">
-      <c r="D81" s="26" t="n"/>
-      <c r="E81" s="27" t="n"/>
-      <c r="F81" s="27" t="n"/>
-      <c r="G81" s="27" t="n"/>
-      <c r="H81" s="27" t="n"/>
-      <c r="I81" s="27" t="n"/>
-      <c r="J81" s="27" t="n"/>
-      <c r="K81" s="27" t="n"/>
-      <c r="L81" s="27" t="n"/>
-      <c r="M81" s="27" t="n"/>
-      <c r="N81" s="27" t="n"/>
-      <c r="O81" s="27" t="n"/>
-      <c r="P81" s="28" t="n"/>
-      <c r="Q81" s="38" t="n"/>
+      <c r="B81" s="23" t="n"/>
+      <c r="C81" s="24" t="n"/>
+      <c r="D81" s="24" t="n"/>
+      <c r="E81" s="24" t="n"/>
+      <c r="F81" s="24" t="n"/>
+      <c r="G81" s="24" t="n"/>
+      <c r="H81" s="24" t="n"/>
+      <c r="I81" s="24" t="n"/>
+      <c r="J81" s="24" t="n"/>
+      <c r="K81" s="24" t="n"/>
+      <c r="L81" s="24" t="n"/>
+      <c r="M81" s="24" t="n"/>
+      <c r="N81" s="25" t="n"/>
+      <c r="O81" s="35" t="n"/>
     </row>
     <row r="82">
-      <c r="D82" s="26" t="n"/>
-      <c r="E82" s="27" t="n"/>
-      <c r="F82" s="27" t="n"/>
-      <c r="G82" s="27" t="n"/>
-      <c r="H82" s="27" t="n"/>
-      <c r="I82" s="27" t="n"/>
-      <c r="J82" s="27" t="n"/>
-      <c r="K82" s="27" t="n"/>
-      <c r="L82" s="27" t="n"/>
-      <c r="M82" s="27" t="n"/>
-      <c r="N82" s="27" t="n"/>
-      <c r="O82" s="27" t="n"/>
-      <c r="P82" s="28" t="n"/>
-      <c r="Q82" s="38" t="n"/>
+      <c r="B82" s="23" t="n"/>
+      <c r="C82" s="24" t="n"/>
+      <c r="D82" s="24" t="n"/>
+      <c r="E82" s="24" t="n"/>
+      <c r="F82" s="24" t="n"/>
+      <c r="G82" s="24" t="n"/>
+      <c r="H82" s="24" t="n"/>
+      <c r="I82" s="24" t="n"/>
+      <c r="J82" s="24" t="n"/>
+      <c r="K82" s="24" t="n"/>
+      <c r="L82" s="24" t="n"/>
+      <c r="M82" s="24" t="n"/>
+      <c r="N82" s="25" t="n"/>
+      <c r="O82" s="35" t="n"/>
     </row>
     <row r="83">
-      <c r="D83" s="26" t="n"/>
-      <c r="E83" s="27" t="n"/>
-      <c r="F83" s="27" t="n"/>
-      <c r="G83" s="27" t="n"/>
-      <c r="H83" s="27" t="n"/>
-      <c r="I83" s="27" t="n"/>
-      <c r="J83" s="27" t="n"/>
-      <c r="K83" s="27" t="n"/>
-      <c r="L83" s="27" t="n"/>
-      <c r="M83" s="27" t="n"/>
-      <c r="N83" s="27" t="n"/>
-      <c r="O83" s="27" t="n"/>
-      <c r="P83" s="28" t="n"/>
-      <c r="Q83" s="38" t="n"/>
+      <c r="B83" s="23" t="n"/>
+      <c r="C83" s="24" t="n"/>
+      <c r="D83" s="24" t="n"/>
+      <c r="E83" s="24" t="n"/>
+      <c r="F83" s="24" t="n"/>
+      <c r="G83" s="24" t="n"/>
+      <c r="H83" s="24" t="n"/>
+      <c r="I83" s="24" t="n"/>
+      <c r="J83" s="24" t="n"/>
+      <c r="K83" s="24" t="n"/>
+      <c r="L83" s="24" t="n"/>
+      <c r="M83" s="24" t="n"/>
+      <c r="N83" s="25" t="n"/>
+      <c r="O83" s="35" t="n"/>
     </row>
     <row r="84">
-      <c r="D84" s="26" t="n"/>
-      <c r="E84" s="27" t="n"/>
-      <c r="F84" s="27" t="n"/>
-      <c r="G84" s="27" t="n"/>
-      <c r="H84" s="27" t="n"/>
-      <c r="I84" s="27" t="n"/>
-      <c r="J84" s="27" t="n"/>
-      <c r="K84" s="27" t="n"/>
-      <c r="L84" s="27" t="n"/>
-      <c r="M84" s="27" t="n"/>
-      <c r="N84" s="27" t="n"/>
-      <c r="O84" s="27" t="n"/>
-      <c r="P84" s="28" t="n"/>
-      <c r="Q84" s="38" t="n"/>
+      <c r="B84" s="23" t="n"/>
+      <c r="C84" s="24" t="n"/>
+      <c r="D84" s="24" t="n"/>
+      <c r="E84" s="24" t="n"/>
+      <c r="F84" s="24" t="n"/>
+      <c r="G84" s="24" t="n"/>
+      <c r="H84" s="24" t="n"/>
+      <c r="I84" s="24" t="n"/>
+      <c r="J84" s="24" t="n"/>
+      <c r="K84" s="24" t="n"/>
+      <c r="L84" s="24" t="n"/>
+      <c r="M84" s="24" t="n"/>
+      <c r="N84" s="25" t="n"/>
+      <c r="O84" s="35" t="n"/>
     </row>
     <row r="85">
-      <c r="D85" s="26" t="n"/>
-      <c r="E85" s="27" t="n"/>
-      <c r="F85" s="27" t="n"/>
-      <c r="G85" s="27" t="n"/>
-      <c r="H85" s="27" t="n"/>
-      <c r="I85" s="27" t="n"/>
-      <c r="J85" s="27" t="n"/>
-      <c r="K85" s="27" t="n"/>
-      <c r="L85" s="27" t="n"/>
-      <c r="M85" s="27" t="n"/>
-      <c r="N85" s="27" t="n"/>
-      <c r="O85" s="27" t="n"/>
-      <c r="P85" s="28" t="n"/>
-      <c r="Q85" s="38" t="n"/>
+      <c r="B85" s="23" t="n"/>
+      <c r="C85" s="24" t="n"/>
+      <c r="D85" s="24" t="n"/>
+      <c r="E85" s="24" t="n"/>
+      <c r="F85" s="24" t="n"/>
+      <c r="G85" s="24" t="n"/>
+      <c r="H85" s="24" t="n"/>
+      <c r="I85" s="24" t="n"/>
+      <c r="J85" s="24" t="n"/>
+      <c r="K85" s="24" t="n"/>
+      <c r="L85" s="24" t="n"/>
+      <c r="M85" s="24" t="n"/>
+      <c r="N85" s="25" t="n"/>
+      <c r="O85" s="35" t="n"/>
     </row>
     <row r="86">
-      <c r="D86" s="26" t="n"/>
-      <c r="E86" s="27" t="n"/>
-      <c r="F86" s="27" t="n"/>
-      <c r="G86" s="27" t="n"/>
-      <c r="H86" s="27" t="n"/>
-      <c r="I86" s="27" t="n"/>
-      <c r="J86" s="27" t="n"/>
-      <c r="K86" s="27" t="n"/>
-      <c r="L86" s="27" t="n"/>
-      <c r="M86" s="27" t="n"/>
-      <c r="N86" s="27" t="n"/>
-      <c r="O86" s="27" t="n"/>
-      <c r="P86" s="28" t="n"/>
-      <c r="Q86" s="38" t="n"/>
+      <c r="B86" s="23" t="n"/>
+      <c r="C86" s="24" t="n"/>
+      <c r="D86" s="24" t="n"/>
+      <c r="E86" s="24" t="n"/>
+      <c r="F86" s="24" t="n"/>
+      <c r="G86" s="24" t="n"/>
+      <c r="H86" s="24" t="n"/>
+      <c r="I86" s="24" t="n"/>
+      <c r="J86" s="24" t="n"/>
+      <c r="K86" s="24" t="n"/>
+      <c r="L86" s="24" t="n"/>
+      <c r="M86" s="24" t="n"/>
+      <c r="N86" s="25" t="n"/>
+      <c r="O86" s="35" t="n"/>
     </row>
     <row r="87">
-      <c r="D87" s="26" t="n"/>
-      <c r="E87" s="27" t="n"/>
-      <c r="F87" s="27" t="n"/>
-      <c r="G87" s="27" t="n"/>
-      <c r="H87" s="27" t="n"/>
-      <c r="I87" s="27" t="n"/>
-      <c r="J87" s="27" t="n"/>
-      <c r="K87" s="27" t="n"/>
-      <c r="L87" s="27" t="n"/>
-      <c r="M87" s="27" t="n"/>
-      <c r="N87" s="27" t="n"/>
-      <c r="O87" s="27" t="n"/>
-      <c r="P87" s="28" t="n"/>
-      <c r="Q87" s="38" t="n"/>
+      <c r="B87" s="23" t="n"/>
+      <c r="C87" s="24" t="n"/>
+      <c r="D87" s="24" t="n"/>
+      <c r="E87" s="24" t="n"/>
+      <c r="F87" s="24" t="n"/>
+      <c r="G87" s="24" t="n"/>
+      <c r="H87" s="24" t="n"/>
+      <c r="I87" s="24" t="n"/>
+      <c r="J87" s="24" t="n"/>
+      <c r="K87" s="24" t="n"/>
+      <c r="L87" s="24" t="n"/>
+      <c r="M87" s="24" t="n"/>
+      <c r="N87" s="25" t="n"/>
+      <c r="O87" s="35" t="n"/>
     </row>
     <row r="88">
-      <c r="D88" s="26" t="n"/>
-      <c r="E88" s="27" t="n"/>
-      <c r="F88" s="27" t="n"/>
-      <c r="G88" s="27" t="n"/>
-      <c r="H88" s="27" t="n"/>
-      <c r="I88" s="27" t="n"/>
-      <c r="J88" s="27" t="n"/>
-      <c r="K88" s="27" t="n"/>
-      <c r="L88" s="27" t="n"/>
-      <c r="M88" s="27" t="n"/>
-      <c r="N88" s="27" t="n"/>
-      <c r="O88" s="27" t="n"/>
-      <c r="P88" s="28" t="n"/>
-      <c r="Q88" s="38" t="n"/>
+      <c r="B88" s="23" t="n"/>
+      <c r="C88" s="24" t="n"/>
+      <c r="D88" s="24" t="n"/>
+      <c r="E88" s="24" t="n"/>
+      <c r="F88" s="24" t="n"/>
+      <c r="G88" s="24" t="n"/>
+      <c r="H88" s="24" t="n"/>
+      <c r="I88" s="24" t="n"/>
+      <c r="J88" s="24" t="n"/>
+      <c r="K88" s="24" t="n"/>
+      <c r="L88" s="24" t="n"/>
+      <c r="M88" s="24" t="n"/>
+      <c r="N88" s="25" t="n"/>
+      <c r="O88" s="35" t="n"/>
     </row>
     <row r="89">
-      <c r="D89" s="26" t="n"/>
-      <c r="E89" s="27" t="n"/>
-      <c r="F89" s="27" t="n"/>
-      <c r="G89" s="27" t="n"/>
-      <c r="H89" s="27" t="n"/>
-      <c r="I89" s="27" t="n"/>
-      <c r="J89" s="27" t="n"/>
-      <c r="K89" s="27" t="n"/>
-      <c r="L89" s="27" t="n"/>
-      <c r="M89" s="27" t="n"/>
-      <c r="N89" s="27" t="n"/>
-      <c r="O89" s="27" t="n"/>
-      <c r="P89" s="28" t="n"/>
-      <c r="Q89" s="38" t="n"/>
+      <c r="B89" s="23" t="n"/>
+      <c r="C89" s="24" t="n"/>
+      <c r="D89" s="24" t="n"/>
+      <c r="E89" s="24" t="n"/>
+      <c r="F89" s="24" t="n"/>
+      <c r="G89" s="24" t="n"/>
+      <c r="H89" s="24" t="n"/>
+      <c r="I89" s="24" t="n"/>
+      <c r="J89" s="24" t="n"/>
+      <c r="K89" s="24" t="n"/>
+      <c r="L89" s="24" t="n"/>
+      <c r="M89" s="24" t="n"/>
+      <c r="N89" s="25" t="n"/>
+      <c r="O89" s="35" t="n"/>
     </row>
     <row r="90">
-      <c r="D90" s="26" t="n"/>
-      <c r="E90" s="27" t="n"/>
-      <c r="F90" s="27" t="n"/>
-      <c r="G90" s="27" t="n"/>
-      <c r="H90" s="27" t="n"/>
-      <c r="I90" s="27" t="n"/>
-      <c r="J90" s="27" t="n"/>
-      <c r="K90" s="27" t="n"/>
-      <c r="L90" s="27" t="n"/>
-      <c r="M90" s="27" t="n"/>
-      <c r="N90" s="27" t="n"/>
-      <c r="O90" s="27" t="n"/>
-      <c r="P90" s="28" t="n"/>
-      <c r="Q90" s="38" t="n"/>
+      <c r="B90" s="23" t="n"/>
+      <c r="C90" s="24" t="n"/>
+      <c r="D90" s="24" t="n"/>
+      <c r="E90" s="24" t="n"/>
+      <c r="F90" s="24" t="n"/>
+      <c r="G90" s="24" t="n"/>
+      <c r="H90" s="24" t="n"/>
+      <c r="I90" s="24" t="n"/>
+      <c r="J90" s="24" t="n"/>
+      <c r="K90" s="24" t="n"/>
+      <c r="L90" s="24" t="n"/>
+      <c r="M90" s="24" t="n"/>
+      <c r="N90" s="25" t="n"/>
+      <c r="O90" s="35" t="n"/>
     </row>
     <row r="91">
-      <c r="D91" s="26" t="n"/>
-      <c r="E91" s="27" t="n"/>
-      <c r="F91" s="27" t="n"/>
-      <c r="G91" s="27" t="n"/>
-      <c r="H91" s="27" t="n"/>
-      <c r="I91" s="27" t="n"/>
-      <c r="J91" s="27" t="n"/>
-      <c r="K91" s="27" t="n"/>
-      <c r="L91" s="27" t="n"/>
-      <c r="M91" s="27" t="n"/>
-      <c r="N91" s="27" t="n"/>
-      <c r="O91" s="27" t="n"/>
-      <c r="P91" s="28" t="n"/>
-      <c r="Q91" s="38" t="n"/>
+      <c r="B91" s="23" t="n"/>
+      <c r="C91" s="24" t="n"/>
+      <c r="D91" s="24" t="n"/>
+      <c r="E91" s="24" t="n"/>
+      <c r="F91" s="24" t="n"/>
+      <c r="G91" s="24" t="n"/>
+      <c r="H91" s="24" t="n"/>
+      <c r="I91" s="24" t="n"/>
+      <c r="J91" s="24" t="n"/>
+      <c r="K91" s="24" t="n"/>
+      <c r="L91" s="24" t="n"/>
+      <c r="M91" s="24" t="n"/>
+      <c r="N91" s="25" t="n"/>
+      <c r="O91" s="35" t="n"/>
     </row>
     <row r="92">
-      <c r="D92" s="26" t="n"/>
-      <c r="E92" s="27" t="n"/>
-      <c r="F92" s="27" t="n"/>
-      <c r="G92" s="27" t="n"/>
-      <c r="H92" s="27" t="n"/>
-      <c r="I92" s="27" t="n"/>
-      <c r="J92" s="27" t="n"/>
-      <c r="K92" s="27" t="n"/>
-      <c r="L92" s="27" t="n"/>
-      <c r="M92" s="27" t="n"/>
-      <c r="N92" s="27" t="n"/>
-      <c r="O92" s="27" t="n"/>
-      <c r="P92" s="28" t="n"/>
-      <c r="Q92" s="38" t="n"/>
+      <c r="B92" s="23" t="n"/>
+      <c r="C92" s="24" t="n"/>
+      <c r="D92" s="24" t="n"/>
+      <c r="E92" s="24" t="n"/>
+      <c r="F92" s="24" t="n"/>
+      <c r="G92" s="24" t="n"/>
+      <c r="H92" s="24" t="n"/>
+      <c r="I92" s="24" t="n"/>
+      <c r="J92" s="24" t="n"/>
+      <c r="K92" s="24" t="n"/>
+      <c r="L92" s="24" t="n"/>
+      <c r="M92" s="24" t="n"/>
+      <c r="N92" s="25" t="n"/>
+      <c r="O92" s="35" t="n"/>
     </row>
     <row r="93">
-      <c r="D93" s="26" t="n"/>
-      <c r="E93" s="27" t="n"/>
-      <c r="F93" s="27" t="n"/>
-      <c r="G93" s="27" t="n"/>
-      <c r="H93" s="27" t="n"/>
-      <c r="I93" s="27" t="n"/>
-      <c r="J93" s="27" t="n"/>
-      <c r="K93" s="27" t="n"/>
-      <c r="L93" s="27" t="n"/>
-      <c r="M93" s="27" t="n"/>
-      <c r="N93" s="27" t="n"/>
-      <c r="O93" s="27" t="n"/>
-      <c r="P93" s="28" t="n"/>
-      <c r="Q93" s="38" t="n"/>
+      <c r="B93" s="23" t="n"/>
+      <c r="C93" s="24" t="n"/>
+      <c r="D93" s="24" t="n"/>
+      <c r="E93" s="24" t="n"/>
+      <c r="F93" s="24" t="n"/>
+      <c r="G93" s="24" t="n"/>
+      <c r="H93" s="24" t="n"/>
+      <c r="I93" s="24" t="n"/>
+      <c r="J93" s="24" t="n"/>
+      <c r="K93" s="24" t="n"/>
+      <c r="L93" s="24" t="n"/>
+      <c r="M93" s="24" t="n"/>
+      <c r="N93" s="25" t="n"/>
+      <c r="O93" s="35" t="n"/>
     </row>
     <row r="94">
-      <c r="D94" s="26" t="n"/>
-      <c r="E94" s="27" t="n"/>
-      <c r="F94" s="27" t="n"/>
-      <c r="G94" s="27" t="n"/>
-      <c r="H94" s="27" t="n"/>
-      <c r="I94" s="27" t="n"/>
-      <c r="J94" s="27" t="n"/>
-      <c r="K94" s="27" t="n"/>
-      <c r="L94" s="27" t="n"/>
-      <c r="M94" s="27" t="n"/>
-      <c r="N94" s="27" t="n"/>
-      <c r="O94" s="27" t="n"/>
-      <c r="P94" s="28" t="n"/>
-      <c r="Q94" s="38" t="n"/>
+      <c r="B94" s="23" t="n"/>
+      <c r="C94" s="24" t="n"/>
+      <c r="D94" s="24" t="n"/>
+      <c r="E94" s="24" t="n"/>
+      <c r="F94" s="24" t="n"/>
+      <c r="G94" s="24" t="n"/>
+      <c r="H94" s="24" t="n"/>
+      <c r="I94" s="24" t="n"/>
+      <c r="J94" s="24" t="n"/>
+      <c r="K94" s="24" t="n"/>
+      <c r="L94" s="24" t="n"/>
+      <c r="M94" s="24" t="n"/>
+      <c r="N94" s="25" t="n"/>
+      <c r="O94" s="35" t="n"/>
     </row>
     <row r="95">
-      <c r="D95" s="26" t="n"/>
-      <c r="E95" s="27" t="n"/>
-      <c r="F95" s="27" t="n"/>
-      <c r="G95" s="27" t="n"/>
-      <c r="H95" s="27" t="n"/>
-      <c r="I95" s="27" t="n"/>
-      <c r="J95" s="27" t="n"/>
-      <c r="K95" s="27" t="n"/>
-      <c r="L95" s="27" t="n"/>
-      <c r="M95" s="27" t="n"/>
-      <c r="N95" s="27" t="n"/>
-      <c r="O95" s="27" t="n"/>
-      <c r="P95" s="28" t="n"/>
-      <c r="Q95" s="38" t="n"/>
+      <c r="B95" s="23" t="n"/>
+      <c r="C95" s="24" t="n"/>
+      <c r="D95" s="24" t="n"/>
+      <c r="E95" s="24" t="n"/>
+      <c r="F95" s="24" t="n"/>
+      <c r="G95" s="24" t="n"/>
+      <c r="H95" s="24" t="n"/>
+      <c r="I95" s="24" t="n"/>
+      <c r="J95" s="24" t="n"/>
+      <c r="K95" s="24" t="n"/>
+      <c r="L95" s="24" t="n"/>
+      <c r="M95" s="24" t="n"/>
+      <c r="N95" s="25" t="n"/>
+      <c r="O95" s="35" t="n"/>
     </row>
     <row r="96">
-      <c r="D96" s="26" t="n"/>
-      <c r="E96" s="27" t="n"/>
-      <c r="F96" s="27" t="n"/>
-      <c r="G96" s="27" t="n"/>
-      <c r="H96" s="27" t="n"/>
-      <c r="I96" s="27" t="n"/>
-      <c r="J96" s="27" t="n"/>
-      <c r="K96" s="27" t="n"/>
-      <c r="L96" s="27" t="n"/>
-      <c r="M96" s="27" t="n"/>
-      <c r="N96" s="27" t="n"/>
-      <c r="O96" s="27" t="n"/>
-      <c r="P96" s="28" t="n"/>
-      <c r="Q96" s="38" t="n"/>
+      <c r="B96" s="23" t="n"/>
+      <c r="C96" s="24" t="n"/>
+      <c r="D96" s="24" t="n"/>
+      <c r="E96" s="24" t="n"/>
+      <c r="F96" s="24" t="n"/>
+      <c r="G96" s="24" t="n"/>
+      <c r="H96" s="24" t="n"/>
+      <c r="I96" s="24" t="n"/>
+      <c r="J96" s="24" t="n"/>
+      <c r="K96" s="24" t="n"/>
+      <c r="L96" s="24" t="n"/>
+      <c r="M96" s="24" t="n"/>
+      <c r="N96" s="25" t="n"/>
+      <c r="O96" s="35" t="n"/>
     </row>
     <row r="97">
-      <c r="D97" s="26" t="n"/>
-      <c r="E97" s="27" t="n"/>
-      <c r="F97" s="27" t="n"/>
-      <c r="G97" s="27" t="n"/>
-      <c r="H97" s="27" t="n"/>
-      <c r="I97" s="27" t="n"/>
-      <c r="J97" s="27" t="n"/>
-      <c r="K97" s="27" t="n"/>
-      <c r="L97" s="27" t="n"/>
-      <c r="M97" s="27" t="n"/>
-      <c r="N97" s="27" t="n"/>
-      <c r="O97" s="27" t="n"/>
-      <c r="P97" s="28" t="n"/>
-      <c r="Q97" s="38" t="n"/>
+      <c r="B97" s="23" t="n"/>
+      <c r="C97" s="24" t="n"/>
+      <c r="D97" s="24" t="n"/>
+      <c r="E97" s="24" t="n"/>
+      <c r="F97" s="24" t="n"/>
+      <c r="G97" s="24" t="n"/>
+      <c r="H97" s="24" t="n"/>
+      <c r="I97" s="24" t="n"/>
+      <c r="J97" s="24" t="n"/>
+      <c r="K97" s="24" t="n"/>
+      <c r="L97" s="24" t="n"/>
+      <c r="M97" s="24" t="n"/>
+      <c r="N97" s="25" t="n"/>
+      <c r="O97" s="35" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="9" t="n"/>
-      <c r="B98" s="9" t="n"/>
-      <c r="C98" s="9" t="n"/>
-      <c r="D98" s="26" t="n"/>
-      <c r="E98" s="27" t="n"/>
-      <c r="F98" s="27" t="n"/>
-      <c r="G98" s="27" t="n"/>
-      <c r="H98" s="27" t="n"/>
-      <c r="I98" s="27" t="n"/>
-      <c r="J98" s="27" t="n"/>
-      <c r="K98" s="27" t="n"/>
-      <c r="L98" s="27" t="n"/>
-      <c r="M98" s="27" t="n"/>
-      <c r="N98" s="27" t="n"/>
-      <c r="O98" s="27" t="n"/>
-      <c r="P98" s="28" t="n"/>
-      <c r="Q98" s="38" t="n"/>
+      <c r="B98" s="23" t="n"/>
+      <c r="C98" s="24" t="n"/>
+      <c r="D98" s="24" t="n"/>
+      <c r="E98" s="24" t="n"/>
+      <c r="F98" s="24" t="n"/>
+      <c r="G98" s="24" t="n"/>
+      <c r="H98" s="24" t="n"/>
+      <c r="I98" s="24" t="n"/>
+      <c r="J98" s="24" t="n"/>
+      <c r="K98" s="24" t="n"/>
+      <c r="L98" s="24" t="n"/>
+      <c r="M98" s="24" t="n"/>
+      <c r="N98" s="25" t="n"/>
+      <c r="O98" s="35" t="n"/>
+      <c r="P98" s="9" t="n"/>
+      <c r="Q98" s="9" t="n"/>
       <c r="R98" s="9" t="n"/>
-      <c r="S98" s="9" t="n"/>
-      <c r="T98" s="9" t="n"/>
-      <c r="U98" s="11" t="n"/>
+      <c r="S98" s="11" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="9" t="n"/>
-      <c r="B99" s="9" t="n"/>
-      <c r="C99" s="9" t="n"/>
-      <c r="D99" s="26" t="n"/>
-      <c r="E99" s="27" t="n"/>
-      <c r="F99" s="27" t="n"/>
-      <c r="G99" s="27" t="n"/>
-      <c r="H99" s="27" t="n"/>
-      <c r="I99" s="27" t="n"/>
-      <c r="J99" s="27" t="n"/>
-      <c r="K99" s="27" t="n"/>
-      <c r="L99" s="27" t="n"/>
-      <c r="M99" s="27" t="n"/>
-      <c r="N99" s="27" t="n"/>
-      <c r="O99" s="27" t="n"/>
-      <c r="P99" s="28" t="n"/>
-      <c r="Q99" s="38" t="n"/>
+      <c r="B99" s="23" t="n"/>
+      <c r="C99" s="24" t="n"/>
+      <c r="D99" s="24" t="n"/>
+      <c r="E99" s="24" t="n"/>
+      <c r="F99" s="24" t="n"/>
+      <c r="G99" s="24" t="n"/>
+      <c r="H99" s="24" t="n"/>
+      <c r="I99" s="24" t="n"/>
+      <c r="J99" s="24" t="n"/>
+      <c r="K99" s="24" t="n"/>
+      <c r="L99" s="24" t="n"/>
+      <c r="M99" s="24" t="n"/>
+      <c r="N99" s="25" t="n"/>
+      <c r="O99" s="35" t="n"/>
+      <c r="P99" s="9" t="n"/>
+      <c r="Q99" s="9" t="n"/>
       <c r="R99" s="9" t="n"/>
-      <c r="S99" s="9" t="n"/>
-      <c r="T99" s="9" t="n"/>
-      <c r="U99" s="11" t="n"/>
+      <c r="S99" s="11" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="9" t="n"/>
-      <c r="B100" s="9" t="n"/>
-      <c r="C100" s="9" t="n"/>
-      <c r="D100" s="26" t="n"/>
-      <c r="E100" s="27" t="n"/>
-      <c r="F100" s="27" t="n"/>
-      <c r="G100" s="27" t="n"/>
-      <c r="H100" s="27" t="n"/>
-      <c r="I100" s="27" t="n"/>
-      <c r="J100" s="27" t="n"/>
-      <c r="K100" s="27" t="n"/>
-      <c r="L100" s="27" t="n"/>
-      <c r="M100" s="27" t="n"/>
-      <c r="N100" s="27" t="n"/>
-      <c r="O100" s="27" t="n"/>
-      <c r="P100" s="28" t="n"/>
-      <c r="Q100" s="38" t="n"/>
+      <c r="B100" s="23" t="n"/>
+      <c r="C100" s="24" t="n"/>
+      <c r="D100" s="24" t="n"/>
+      <c r="E100" s="24" t="n"/>
+      <c r="F100" s="24" t="n"/>
+      <c r="G100" s="24" t="n"/>
+      <c r="H100" s="24" t="n"/>
+      <c r="I100" s="24" t="n"/>
+      <c r="J100" s="24" t="n"/>
+      <c r="K100" s="24" t="n"/>
+      <c r="L100" s="24" t="n"/>
+      <c r="M100" s="24" t="n"/>
+      <c r="N100" s="25" t="n"/>
+      <c r="O100" s="35" t="n"/>
+      <c r="P100" s="9" t="n"/>
+      <c r="Q100" s="9" t="n"/>
       <c r="R100" s="9" t="n"/>
-      <c r="S100" s="9" t="n"/>
-      <c r="T100" s="9" t="n"/>
-      <c r="U100" s="11" t="n"/>
+      <c r="S100" s="11" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="9" t="n"/>
-      <c r="B101" s="9" t="n"/>
-      <c r="C101" s="9" t="n"/>
-      <c r="D101" s="26" t="n"/>
-      <c r="E101" s="27" t="n"/>
-      <c r="F101" s="27" t="n"/>
-      <c r="G101" s="27" t="n"/>
-      <c r="H101" s="27" t="n"/>
-      <c r="I101" s="27" t="n"/>
-      <c r="J101" s="27" t="n"/>
-      <c r="K101" s="27" t="n"/>
-      <c r="L101" s="27" t="n"/>
-      <c r="M101" s="27" t="n"/>
-      <c r="N101" s="27" t="n"/>
-      <c r="O101" s="27" t="n"/>
-      <c r="P101" s="28" t="n"/>
-      <c r="Q101" s="38" t="n"/>
+      <c r="B101" s="23" t="n"/>
+      <c r="C101" s="24" t="n"/>
+      <c r="D101" s="24" t="n"/>
+      <c r="E101" s="24" t="n"/>
+      <c r="F101" s="24" t="n"/>
+      <c r="G101" s="24" t="n"/>
+      <c r="H101" s="24" t="n"/>
+      <c r="I101" s="24" t="n"/>
+      <c r="J101" s="24" t="n"/>
+      <c r="K101" s="24" t="n"/>
+      <c r="L101" s="24" t="n"/>
+      <c r="M101" s="24" t="n"/>
+      <c r="N101" s="25" t="n"/>
+      <c r="O101" s="35" t="n"/>
+      <c r="P101" s="9" t="n"/>
+      <c r="Q101" s="9" t="n"/>
       <c r="R101" s="9" t="n"/>
-      <c r="S101" s="9" t="n"/>
-      <c r="T101" s="9" t="n"/>
-      <c r="U101" s="11" t="n"/>
+      <c r="S101" s="11" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="9" t="n"/>
-      <c r="B102" s="9" t="n"/>
-      <c r="C102" s="9" t="n"/>
-      <c r="D102" s="26" t="n"/>
-      <c r="E102" s="27" t="n"/>
-      <c r="F102" s="27" t="n"/>
-      <c r="G102" s="27" t="n"/>
-      <c r="H102" s="27" t="n"/>
-      <c r="I102" s="27" t="n"/>
-      <c r="J102" s="27" t="n"/>
-      <c r="K102" s="27" t="n"/>
-      <c r="L102" s="27" t="n"/>
-      <c r="M102" s="27" t="n"/>
-      <c r="N102" s="27" t="n"/>
-      <c r="O102" s="27" t="n"/>
-      <c r="P102" s="28" t="n"/>
-      <c r="Q102" s="38" t="n"/>
+      <c r="B102" s="23" t="n"/>
+      <c r="C102" s="24" t="n"/>
+      <c r="D102" s="24" t="n"/>
+      <c r="E102" s="24" t="n"/>
+      <c r="F102" s="24" t="n"/>
+      <c r="G102" s="24" t="n"/>
+      <c r="H102" s="24" t="n"/>
+      <c r="I102" s="24" t="n"/>
+      <c r="J102" s="24" t="n"/>
+      <c r="K102" s="24" t="n"/>
+      <c r="L102" s="24" t="n"/>
+      <c r="M102" s="24" t="n"/>
+      <c r="N102" s="25" t="n"/>
+      <c r="O102" s="35" t="n"/>
+      <c r="P102" s="9" t="n"/>
+      <c r="Q102" s="9" t="n"/>
       <c r="R102" s="9" t="n"/>
-      <c r="S102" s="9" t="n"/>
-      <c r="T102" s="9" t="n"/>
-      <c r="U102" s="11" t="n"/>
+      <c r="S102" s="11" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="9" t="n"/>
-      <c r="B103" s="9" t="n"/>
-      <c r="C103" s="9" t="n"/>
-      <c r="D103" s="26" t="n"/>
-      <c r="E103" s="27" t="n"/>
-      <c r="F103" s="27" t="n"/>
-      <c r="G103" s="27" t="n"/>
-      <c r="H103" s="27" t="n"/>
-      <c r="I103" s="27" t="n"/>
-      <c r="J103" s="27" t="n"/>
-      <c r="K103" s="27" t="n"/>
-      <c r="L103" s="27" t="n"/>
-      <c r="M103" s="27" t="n"/>
-      <c r="N103" s="27" t="n"/>
-      <c r="O103" s="27" t="n"/>
-      <c r="P103" s="28" t="n"/>
-      <c r="Q103" s="38" t="n"/>
+      <c r="B103" s="23" t="n"/>
+      <c r="C103" s="24" t="n"/>
+      <c r="D103" s="24" t="n"/>
+      <c r="E103" s="24" t="n"/>
+      <c r="F103" s="24" t="n"/>
+      <c r="G103" s="24" t="n"/>
+      <c r="H103" s="24" t="n"/>
+      <c r="I103" s="24" t="n"/>
+      <c r="J103" s="24" t="n"/>
+      <c r="K103" s="24" t="n"/>
+      <c r="L103" s="24" t="n"/>
+      <c r="M103" s="24" t="n"/>
+      <c r="N103" s="25" t="n"/>
+      <c r="O103" s="35" t="n"/>
+      <c r="P103" s="9" t="n"/>
+      <c r="Q103" s="9" t="n"/>
       <c r="R103" s="9" t="n"/>
-      <c r="S103" s="9" t="n"/>
-      <c r="T103" s="9" t="n"/>
-      <c r="U103" s="11" t="n"/>
+      <c r="S103" s="11" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="9" t="n"/>
-      <c r="B104" s="9" t="n"/>
-      <c r="C104" s="9" t="n"/>
-      <c r="D104" s="26" t="n"/>
-      <c r="E104" s="27" t="n"/>
-      <c r="F104" s="27" t="n"/>
-      <c r="G104" s="27" t="n"/>
-      <c r="H104" s="27" t="n"/>
-      <c r="I104" s="27" t="n"/>
-      <c r="J104" s="27" t="n"/>
-      <c r="K104" s="27" t="n"/>
-      <c r="L104" s="27" t="n"/>
-      <c r="M104" s="27" t="n"/>
-      <c r="N104" s="27" t="n"/>
-      <c r="O104" s="27" t="n"/>
-      <c r="P104" s="28" t="n"/>
-      <c r="Q104" s="38" t="n"/>
+      <c r="B104" s="23" t="n"/>
+      <c r="C104" s="24" t="n"/>
+      <c r="D104" s="24" t="n"/>
+      <c r="E104" s="24" t="n"/>
+      <c r="F104" s="24" t="n"/>
+      <c r="G104" s="24" t="n"/>
+      <c r="H104" s="24" t="n"/>
+      <c r="I104" s="24" t="n"/>
+      <c r="J104" s="24" t="n"/>
+      <c r="K104" s="24" t="n"/>
+      <c r="L104" s="24" t="n"/>
+      <c r="M104" s="24" t="n"/>
+      <c r="N104" s="25" t="n"/>
+      <c r="O104" s="35" t="n"/>
+      <c r="P104" s="9" t="n"/>
+      <c r="Q104" s="9" t="n"/>
       <c r="R104" s="9" t="n"/>
-      <c r="S104" s="9" t="n"/>
-      <c r="T104" s="9" t="n"/>
-      <c r="U104" s="11" t="n"/>
+      <c r="S104" s="11" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="9" t="n"/>
-      <c r="B105" s="9" t="n"/>
-      <c r="C105" s="9" t="n"/>
-      <c r="D105" s="26" t="n"/>
-      <c r="E105" s="27" t="n"/>
-      <c r="F105" s="27" t="n"/>
-      <c r="G105" s="27" t="n"/>
-      <c r="H105" s="27" t="n"/>
-      <c r="I105" s="27" t="n"/>
-      <c r="J105" s="27" t="n"/>
-      <c r="K105" s="27" t="n"/>
-      <c r="L105" s="27" t="n"/>
-      <c r="M105" s="27" t="n"/>
-      <c r="N105" s="27" t="n"/>
-      <c r="O105" s="27" t="n"/>
-      <c r="P105" s="28" t="n"/>
-      <c r="Q105" s="38" t="n"/>
+      <c r="B105" s="23" t="n"/>
+      <c r="C105" s="24" t="n"/>
+      <c r="D105" s="24" t="n"/>
+      <c r="E105" s="24" t="n"/>
+      <c r="F105" s="24" t="n"/>
+      <c r="G105" s="24" t="n"/>
+      <c r="H105" s="24" t="n"/>
+      <c r="I105" s="24" t="n"/>
+      <c r="J105" s="24" t="n"/>
+      <c r="K105" s="24" t="n"/>
+      <c r="L105" s="24" t="n"/>
+      <c r="M105" s="24" t="n"/>
+      <c r="N105" s="25" t="n"/>
+      <c r="O105" s="35" t="n"/>
+      <c r="P105" s="9" t="n"/>
+      <c r="Q105" s="9" t="n"/>
       <c r="R105" s="9" t="n"/>
-      <c r="S105" s="9" t="n"/>
-      <c r="T105" s="9" t="n"/>
-      <c r="U105" s="11" t="n"/>
+      <c r="S105" s="11" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="9" t="n"/>
-      <c r="B106" s="9" t="n"/>
-      <c r="C106" s="9" t="n"/>
-      <c r="D106" s="26" t="n"/>
-      <c r="E106" s="27" t="n"/>
-      <c r="F106" s="27" t="n"/>
-      <c r="G106" s="27" t="n"/>
-      <c r="H106" s="27" t="n"/>
-      <c r="I106" s="27" t="n"/>
-      <c r="J106" s="27" t="n"/>
-      <c r="K106" s="27" t="n"/>
-      <c r="L106" s="27" t="n"/>
-      <c r="M106" s="27" t="n"/>
-      <c r="N106" s="27" t="n"/>
-      <c r="O106" s="27" t="n"/>
-      <c r="P106" s="28" t="n"/>
-      <c r="Q106" s="38" t="n"/>
+      <c r="B106" s="23" t="n"/>
+      <c r="C106" s="24" t="n"/>
+      <c r="D106" s="24" t="n"/>
+      <c r="E106" s="24" t="n"/>
+      <c r="F106" s="24" t="n"/>
+      <c r="G106" s="24" t="n"/>
+      <c r="H106" s="24" t="n"/>
+      <c r="I106" s="24" t="n"/>
+      <c r="J106" s="24" t="n"/>
+      <c r="K106" s="24" t="n"/>
+      <c r="L106" s="24" t="n"/>
+      <c r="M106" s="24" t="n"/>
+      <c r="N106" s="25" t="n"/>
+      <c r="O106" s="35" t="n"/>
+      <c r="P106" s="9" t="n"/>
+      <c r="Q106" s="9" t="n"/>
       <c r="R106" s="9" t="n"/>
-      <c r="S106" s="9" t="n"/>
-      <c r="T106" s="9" t="n"/>
-      <c r="U106" s="11" t="n"/>
+      <c r="S106" s="11" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="9" t="n"/>
-      <c r="B107" s="9" t="n"/>
-      <c r="C107" s="9" t="n"/>
-      <c r="D107" s="26" t="n"/>
-      <c r="E107" s="27" t="n"/>
-      <c r="F107" s="27" t="n"/>
-      <c r="G107" s="27" t="n"/>
-      <c r="H107" s="27" t="n"/>
-      <c r="I107" s="27" t="n"/>
-      <c r="J107" s="27" t="n"/>
-      <c r="K107" s="27" t="n"/>
-      <c r="L107" s="27" t="n"/>
-      <c r="M107" s="27" t="n"/>
-      <c r="N107" s="27" t="n"/>
-      <c r="O107" s="27" t="n"/>
-      <c r="P107" s="28" t="n"/>
-      <c r="Q107" s="38" t="n"/>
+      <c r="B107" s="23" t="n"/>
+      <c r="C107" s="24" t="n"/>
+      <c r="D107" s="24" t="n"/>
+      <c r="E107" s="24" t="n"/>
+      <c r="F107" s="24" t="n"/>
+      <c r="G107" s="24" t="n"/>
+      <c r="H107" s="24" t="n"/>
+      <c r="I107" s="24" t="n"/>
+      <c r="J107" s="24" t="n"/>
+      <c r="K107" s="24" t="n"/>
+      <c r="L107" s="24" t="n"/>
+      <c r="M107" s="24" t="n"/>
+      <c r="N107" s="25" t="n"/>
+      <c r="O107" s="35" t="n"/>
+      <c r="P107" s="9" t="n"/>
+      <c r="Q107" s="9" t="n"/>
       <c r="R107" s="9" t="n"/>
-      <c r="S107" s="9" t="n"/>
-      <c r="T107" s="9" t="n"/>
-      <c r="U107" s="11" t="n"/>
+      <c r="S107" s="11" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="9" t="n"/>
-      <c r="B108" s="9" t="n"/>
-      <c r="C108" s="9" t="n"/>
-      <c r="D108" s="26" t="n"/>
-      <c r="E108" s="27" t="n"/>
-      <c r="F108" s="27" t="n"/>
-      <c r="G108" s="27" t="n"/>
-      <c r="H108" s="27" t="n"/>
-      <c r="I108" s="27" t="n"/>
-      <c r="J108" s="27" t="n"/>
-      <c r="K108" s="27" t="n"/>
-      <c r="L108" s="27" t="n"/>
-      <c r="M108" s="27" t="n"/>
-      <c r="N108" s="27" t="n"/>
-      <c r="O108" s="27" t="n"/>
-      <c r="P108" s="28" t="n"/>
-      <c r="Q108" s="38" t="n"/>
+      <c r="B108" s="23" t="n"/>
+      <c r="C108" s="24" t="n"/>
+      <c r="D108" s="24" t="n"/>
+      <c r="E108" s="24" t="n"/>
+      <c r="F108" s="24" t="n"/>
+      <c r="G108" s="24" t="n"/>
+      <c r="H108" s="24" t="n"/>
+      <c r="I108" s="24" t="n"/>
+      <c r="J108" s="24" t="n"/>
+      <c r="K108" s="24" t="n"/>
+      <c r="L108" s="24" t="n"/>
+      <c r="M108" s="24" t="n"/>
+      <c r="N108" s="25" t="n"/>
+      <c r="O108" s="35" t="n"/>
+      <c r="P108" s="9" t="n"/>
+      <c r="Q108" s="9" t="n"/>
       <c r="R108" s="9" t="n"/>
-      <c r="S108" s="9" t="n"/>
-      <c r="T108" s="9" t="n"/>
-      <c r="U108" s="11" t="n"/>
+      <c r="S108" s="11" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="9" t="n"/>
@@ -3255,15 +3193,13 @@
       <c r="J109" s="9" t="n"/>
       <c r="K109" s="9" t="n"/>
       <c r="L109" s="9" t="n"/>
-      <c r="M109" s="9" t="n"/>
-      <c r="N109" s="9" t="n"/>
-      <c r="O109" s="43" t="n"/>
-      <c r="P109" s="11" t="n"/>
+      <c r="M109" s="40" t="n"/>
+      <c r="N109" s="11" t="n"/>
+      <c r="O109" s="9" t="n"/>
+      <c r="P109" s="9" t="n"/>
       <c r="Q109" s="9" t="n"/>
       <c r="R109" s="9" t="n"/>
-      <c r="S109" s="9" t="n"/>
-      <c r="T109" s="9" t="n"/>
-      <c r="U109" s="11" t="n"/>
+      <c r="S109" s="11" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="9" t="n"/>
@@ -3278,15 +3214,13 @@
       <c r="J110" s="9" t="n"/>
       <c r="K110" s="9" t="n"/>
       <c r="L110" s="9" t="n"/>
-      <c r="M110" s="9" t="n"/>
-      <c r="N110" s="9" t="n"/>
-      <c r="O110" s="43" t="n"/>
-      <c r="P110" s="11" t="n"/>
+      <c r="M110" s="40" t="n"/>
+      <c r="N110" s="11" t="n"/>
+      <c r="O110" s="9" t="n"/>
+      <c r="P110" s="9" t="n"/>
       <c r="Q110" s="9" t="n"/>
       <c r="R110" s="9" t="n"/>
-      <c r="S110" s="9" t="n"/>
-      <c r="T110" s="9" t="n"/>
-      <c r="U110" s="11" t="n"/>
+      <c r="S110" s="11" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="9" t="n"/>
@@ -3301,15 +3235,13 @@
       <c r="J111" s="9" t="n"/>
       <c r="K111" s="9" t="n"/>
       <c r="L111" s="9" t="n"/>
-      <c r="M111" s="9" t="n"/>
-      <c r="N111" s="9" t="n"/>
-      <c r="O111" s="43" t="n"/>
-      <c r="P111" s="11" t="n"/>
+      <c r="M111" s="40" t="n"/>
+      <c r="N111" s="11" t="n"/>
+      <c r="O111" s="9" t="n"/>
+      <c r="P111" s="9" t="n"/>
       <c r="Q111" s="9" t="n"/>
       <c r="R111" s="9" t="n"/>
-      <c r="S111" s="9" t="n"/>
-      <c r="T111" s="9" t="n"/>
-      <c r="U111" s="11" t="n"/>
+      <c r="S111" s="11" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="9" t="n"/>
@@ -3324,15 +3256,13 @@
       <c r="J112" s="9" t="n"/>
       <c r="K112" s="9" t="n"/>
       <c r="L112" s="9" t="n"/>
-      <c r="M112" s="9" t="n"/>
-      <c r="N112" s="9" t="n"/>
-      <c r="O112" s="43" t="n"/>
-      <c r="P112" s="11" t="n"/>
+      <c r="M112" s="40" t="n"/>
+      <c r="N112" s="11" t="n"/>
+      <c r="O112" s="9" t="n"/>
+      <c r="P112" s="9" t="n"/>
       <c r="Q112" s="9" t="n"/>
       <c r="R112" s="9" t="n"/>
-      <c r="S112" s="9" t="n"/>
-      <c r="T112" s="9" t="n"/>
-      <c r="U112" s="11" t="n"/>
+      <c r="S112" s="11" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="9" t="n"/>
@@ -3347,15 +3277,13 @@
       <c r="J113" s="9" t="n"/>
       <c r="K113" s="9" t="n"/>
       <c r="L113" s="9" t="n"/>
-      <c r="M113" s="9" t="n"/>
-      <c r="N113" s="9" t="n"/>
-      <c r="O113" s="43" t="n"/>
-      <c r="P113" s="11" t="n"/>
+      <c r="M113" s="40" t="n"/>
+      <c r="N113" s="11" t="n"/>
+      <c r="O113" s="9" t="n"/>
+      <c r="P113" s="9" t="n"/>
       <c r="Q113" s="9" t="n"/>
       <c r="R113" s="9" t="n"/>
-      <c r="S113" s="9" t="n"/>
-      <c r="T113" s="9" t="n"/>
-      <c r="U113" s="11" t="n"/>
+      <c r="S113" s="11" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="9" t="n"/>
@@ -3370,15 +3298,13 @@
       <c r="J114" s="9" t="n"/>
       <c r="K114" s="9" t="n"/>
       <c r="L114" s="9" t="n"/>
-      <c r="M114" s="9" t="n"/>
-      <c r="N114" s="9" t="n"/>
-      <c r="O114" s="43" t="n"/>
-      <c r="P114" s="11" t="n"/>
+      <c r="M114" s="40" t="n"/>
+      <c r="N114" s="11" t="n"/>
+      <c r="O114" s="9" t="n"/>
+      <c r="P114" s="9" t="n"/>
       <c r="Q114" s="9" t="n"/>
       <c r="R114" s="9" t="n"/>
-      <c r="S114" s="9" t="n"/>
-      <c r="T114" s="9" t="n"/>
-      <c r="U114" s="11" t="n"/>
+      <c r="S114" s="11" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="9" t="n"/>
@@ -3393,15 +3319,13 @@
       <c r="J115" s="9" t="n"/>
       <c r="K115" s="9" t="n"/>
       <c r="L115" s="9" t="n"/>
-      <c r="M115" s="9" t="n"/>
-      <c r="N115" s="9" t="n"/>
-      <c r="O115" s="43" t="n"/>
-      <c r="P115" s="11" t="n"/>
+      <c r="M115" s="40" t="n"/>
+      <c r="N115" s="11" t="n"/>
+      <c r="O115" s="9" t="n"/>
+      <c r="P115" s="9" t="n"/>
       <c r="Q115" s="9" t="n"/>
       <c r="R115" s="9" t="n"/>
-      <c r="S115" s="9" t="n"/>
-      <c r="T115" s="9" t="n"/>
-      <c r="U115" s="11" t="n"/>
+      <c r="S115" s="11" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="9" t="n"/>
@@ -3416,15 +3340,13 @@
       <c r="J116" s="9" t="n"/>
       <c r="K116" s="9" t="n"/>
       <c r="L116" s="9" t="n"/>
-      <c r="M116" s="9" t="n"/>
-      <c r="N116" s="9" t="n"/>
-      <c r="O116" s="43" t="n"/>
-      <c r="P116" s="11" t="n"/>
+      <c r="M116" s="40" t="n"/>
+      <c r="N116" s="11" t="n"/>
+      <c r="O116" s="9" t="n"/>
+      <c r="P116" s="9" t="n"/>
       <c r="Q116" s="9" t="n"/>
       <c r="R116" s="9" t="n"/>
-      <c r="S116" s="9" t="n"/>
-      <c r="T116" s="9" t="n"/>
-      <c r="U116" s="11" t="n"/>
+      <c r="S116" s="11" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="9" t="n"/>
@@ -3439,15 +3361,13 @@
       <c r="J117" s="9" t="n"/>
       <c r="K117" s="9" t="n"/>
       <c r="L117" s="9" t="n"/>
-      <c r="M117" s="9" t="n"/>
-      <c r="N117" s="9" t="n"/>
-      <c r="O117" s="43" t="n"/>
-      <c r="P117" s="11" t="n"/>
+      <c r="M117" s="40" t="n"/>
+      <c r="N117" s="11" t="n"/>
+      <c r="O117" s="9" t="n"/>
+      <c r="P117" s="9" t="n"/>
       <c r="Q117" s="9" t="n"/>
       <c r="R117" s="9" t="n"/>
-      <c r="S117" s="9" t="n"/>
-      <c r="T117" s="9" t="n"/>
-      <c r="U117" s="11" t="n"/>
+      <c r="S117" s="11" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="9" t="n"/>
@@ -3462,15 +3382,13 @@
       <c r="J118" s="9" t="n"/>
       <c r="K118" s="9" t="n"/>
       <c r="L118" s="9" t="n"/>
-      <c r="M118" s="9" t="n"/>
-      <c r="N118" s="9" t="n"/>
-      <c r="O118" s="43" t="n"/>
-      <c r="P118" s="11" t="n"/>
+      <c r="M118" s="40" t="n"/>
+      <c r="N118" s="11" t="n"/>
+      <c r="O118" s="9" t="n"/>
+      <c r="P118" s="9" t="n"/>
       <c r="Q118" s="9" t="n"/>
       <c r="R118" s="9" t="n"/>
-      <c r="S118" s="9" t="n"/>
-      <c r="T118" s="9" t="n"/>
-      <c r="U118" s="11" t="n"/>
+      <c r="S118" s="11" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="9" t="n"/>
@@ -3485,15 +3403,13 @@
       <c r="J119" s="9" t="n"/>
       <c r="K119" s="9" t="n"/>
       <c r="L119" s="9" t="n"/>
-      <c r="M119" s="9" t="n"/>
-      <c r="N119" s="9" t="n"/>
-      <c r="O119" s="43" t="n"/>
-      <c r="P119" s="11" t="n"/>
+      <c r="M119" s="40" t="n"/>
+      <c r="N119" s="11" t="n"/>
+      <c r="O119" s="9" t="n"/>
+      <c r="P119" s="9" t="n"/>
       <c r="Q119" s="9" t="n"/>
       <c r="R119" s="9" t="n"/>
-      <c r="S119" s="9" t="n"/>
-      <c r="T119" s="9" t="n"/>
-      <c r="U119" s="11" t="n"/>
+      <c r="S119" s="11" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="9" t="n"/>
@@ -3508,15 +3424,13 @@
       <c r="J120" s="9" t="n"/>
       <c r="K120" s="9" t="n"/>
       <c r="L120" s="9" t="n"/>
-      <c r="M120" s="9" t="n"/>
-      <c r="N120" s="9" t="n"/>
-      <c r="O120" s="43" t="n"/>
-      <c r="P120" s="11" t="n"/>
+      <c r="M120" s="40" t="n"/>
+      <c r="N120" s="11" t="n"/>
+      <c r="O120" s="9" t="n"/>
+      <c r="P120" s="9" t="n"/>
       <c r="Q120" s="9" t="n"/>
       <c r="R120" s="9" t="n"/>
-      <c r="S120" s="9" t="n"/>
-      <c r="T120" s="9" t="n"/>
-      <c r="U120" s="11" t="n"/>
+      <c r="S120" s="11" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="9" t="n"/>
@@ -3531,15 +3445,13 @@
       <c r="J121" s="9" t="n"/>
       <c r="K121" s="9" t="n"/>
       <c r="L121" s="9" t="n"/>
-      <c r="M121" s="9" t="n"/>
-      <c r="N121" s="9" t="n"/>
-      <c r="O121" s="43" t="n"/>
-      <c r="P121" s="11" t="n"/>
+      <c r="M121" s="40" t="n"/>
+      <c r="N121" s="11" t="n"/>
+      <c r="O121" s="9" t="n"/>
+      <c r="P121" s="9" t="n"/>
       <c r="Q121" s="9" t="n"/>
       <c r="R121" s="9" t="n"/>
-      <c r="S121" s="9" t="n"/>
-      <c r="T121" s="9" t="n"/>
-      <c r="U121" s="11" t="n"/>
+      <c r="S121" s="11" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="9" t="n"/>
@@ -3554,15 +3466,13 @@
       <c r="J122" s="9" t="n"/>
       <c r="K122" s="9" t="n"/>
       <c r="L122" s="9" t="n"/>
-      <c r="M122" s="9" t="n"/>
-      <c r="N122" s="9" t="n"/>
-      <c r="O122" s="43" t="n"/>
-      <c r="P122" s="11" t="n"/>
+      <c r="M122" s="40" t="n"/>
+      <c r="N122" s="11" t="n"/>
+      <c r="O122" s="9" t="n"/>
+      <c r="P122" s="9" t="n"/>
       <c r="Q122" s="9" t="n"/>
       <c r="R122" s="9" t="n"/>
-      <c r="S122" s="9" t="n"/>
-      <c r="T122" s="9" t="n"/>
-      <c r="U122" s="11" t="n"/>
+      <c r="S122" s="11" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="9" t="n"/>
@@ -3577,15 +3487,13 @@
       <c r="J123" s="9" t="n"/>
       <c r="K123" s="9" t="n"/>
       <c r="L123" s="9" t="n"/>
-      <c r="M123" s="9" t="n"/>
-      <c r="N123" s="9" t="n"/>
-      <c r="O123" s="43" t="n"/>
-      <c r="P123" s="11" t="n"/>
+      <c r="M123" s="40" t="n"/>
+      <c r="N123" s="11" t="n"/>
+      <c r="O123" s="9" t="n"/>
+      <c r="P123" s="9" t="n"/>
       <c r="Q123" s="9" t="n"/>
       <c r="R123" s="9" t="n"/>
-      <c r="S123" s="9" t="n"/>
-      <c r="T123" s="9" t="n"/>
-      <c r="U123" s="11" t="n"/>
+      <c r="S123" s="11" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="9" t="n"/>
@@ -3600,15 +3508,13 @@
       <c r="J124" s="9" t="n"/>
       <c r="K124" s="9" t="n"/>
       <c r="L124" s="9" t="n"/>
-      <c r="M124" s="9" t="n"/>
-      <c r="N124" s="9" t="n"/>
-      <c r="O124" s="43" t="n"/>
-      <c r="P124" s="11" t="n"/>
+      <c r="M124" s="40" t="n"/>
+      <c r="N124" s="11" t="n"/>
+      <c r="O124" s="9" t="n"/>
+      <c r="P124" s="9" t="n"/>
       <c r="Q124" s="9" t="n"/>
       <c r="R124" s="9" t="n"/>
-      <c r="S124" s="9" t="n"/>
-      <c r="T124" s="9" t="n"/>
-      <c r="U124" s="11" t="n"/>
+      <c r="S124" s="11" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="9" t="n"/>
@@ -3623,15 +3529,13 @@
       <c r="J125" s="9" t="n"/>
       <c r="K125" s="9" t="n"/>
       <c r="L125" s="9" t="n"/>
-      <c r="M125" s="9" t="n"/>
-      <c r="N125" s="9" t="n"/>
-      <c r="O125" s="43" t="n"/>
-      <c r="P125" s="11" t="n"/>
+      <c r="M125" s="40" t="n"/>
+      <c r="N125" s="11" t="n"/>
+      <c r="O125" s="9" t="n"/>
+      <c r="P125" s="9" t="n"/>
       <c r="Q125" s="9" t="n"/>
       <c r="R125" s="9" t="n"/>
-      <c r="S125" s="9" t="n"/>
-      <c r="T125" s="9" t="n"/>
-      <c r="U125" s="11" t="n"/>
+      <c r="S125" s="11" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="9" t="n"/>
@@ -3646,15 +3550,13 @@
       <c r="J126" s="9" t="n"/>
       <c r="K126" s="9" t="n"/>
       <c r="L126" s="9" t="n"/>
-      <c r="M126" s="9" t="n"/>
-      <c r="N126" s="9" t="n"/>
-      <c r="O126" s="43" t="n"/>
-      <c r="P126" s="11" t="n"/>
+      <c r="M126" s="40" t="n"/>
+      <c r="N126" s="11" t="n"/>
+      <c r="O126" s="9" t="n"/>
+      <c r="P126" s="9" t="n"/>
       <c r="Q126" s="9" t="n"/>
       <c r="R126" s="9" t="n"/>
-      <c r="S126" s="9" t="n"/>
-      <c r="T126" s="9" t="n"/>
-      <c r="U126" s="11" t="n"/>
+      <c r="S126" s="11" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="9" t="n"/>
@@ -3669,15 +3571,13 @@
       <c r="J127" s="9" t="n"/>
       <c r="K127" s="9" t="n"/>
       <c r="L127" s="9" t="n"/>
-      <c r="M127" s="9" t="n"/>
-      <c r="N127" s="9" t="n"/>
-      <c r="O127" s="43" t="n"/>
-      <c r="P127" s="11" t="n"/>
+      <c r="M127" s="40" t="n"/>
+      <c r="N127" s="11" t="n"/>
+      <c r="O127" s="9" t="n"/>
+      <c r="P127" s="9" t="n"/>
       <c r="Q127" s="9" t="n"/>
       <c r="R127" s="9" t="n"/>
-      <c r="S127" s="9" t="n"/>
-      <c r="T127" s="9" t="n"/>
-      <c r="U127" s="11" t="n"/>
+      <c r="S127" s="11" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="9" t="n"/>
@@ -3692,15 +3592,13 @@
       <c r="J128" s="9" t="n"/>
       <c r="K128" s="9" t="n"/>
       <c r="L128" s="9" t="n"/>
-      <c r="M128" s="9" t="n"/>
-      <c r="N128" s="9" t="n"/>
-      <c r="O128" s="43" t="n"/>
-      <c r="P128" s="11" t="n"/>
+      <c r="M128" s="40" t="n"/>
+      <c r="N128" s="11" t="n"/>
+      <c r="O128" s="9" t="n"/>
+      <c r="P128" s="9" t="n"/>
       <c r="Q128" s="9" t="n"/>
       <c r="R128" s="9" t="n"/>
-      <c r="S128" s="9" t="n"/>
-      <c r="T128" s="9" t="n"/>
-      <c r="U128" s="11" t="n"/>
+      <c r="S128" s="11" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="9" t="n"/>
@@ -3715,15 +3613,13 @@
       <c r="J129" s="9" t="n"/>
       <c r="K129" s="9" t="n"/>
       <c r="L129" s="9" t="n"/>
-      <c r="M129" s="9" t="n"/>
-      <c r="N129" s="9" t="n"/>
-      <c r="O129" s="43" t="n"/>
-      <c r="P129" s="11" t="n"/>
+      <c r="M129" s="40" t="n"/>
+      <c r="N129" s="11" t="n"/>
+      <c r="O129" s="9" t="n"/>
+      <c r="P129" s="9" t="n"/>
       <c r="Q129" s="9" t="n"/>
       <c r="R129" s="9" t="n"/>
-      <c r="S129" s="9" t="n"/>
-      <c r="T129" s="9" t="n"/>
-      <c r="U129" s="11" t="n"/>
+      <c r="S129" s="11" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="9" t="n"/>
@@ -3738,17 +3634,15 @@
       <c r="J130" s="9" t="n"/>
       <c r="K130" s="9" t="n"/>
       <c r="L130" s="9" t="n"/>
-      <c r="M130" s="9" t="n"/>
-      <c r="N130" s="9" t="n"/>
-      <c r="O130" s="43" t="n"/>
-      <c r="P130" s="11" t="n"/>
+      <c r="M130" s="40" t="n"/>
+      <c r="N130" s="11" t="n"/>
+      <c r="O130" s="9" t="n"/>
+      <c r="P130" s="9" t="n"/>
       <c r="Q130" s="9" t="n"/>
       <c r="R130" s="9" t="n"/>
-      <c r="S130" s="9" t="n"/>
-      <c r="T130" s="9" t="n"/>
-      <c r="U130" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="144" s="39">
+      <c r="S130" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="144" s="36">
       <c r="A144" s="9" t="n"/>
       <c r="B144" s="9" t="n"/>
       <c r="C144" s="9" t="n"/>
@@ -3761,17 +3655,15 @@
       <c r="J144" s="9" t="n"/>
       <c r="K144" s="9" t="n"/>
       <c r="L144" s="9" t="n"/>
-      <c r="M144" s="9" t="n"/>
-      <c r="N144" s="9" t="n"/>
-      <c r="O144" s="43" t="n"/>
-      <c r="P144" s="11" t="n"/>
+      <c r="M144" s="40" t="n"/>
+      <c r="N144" s="11" t="n"/>
+      <c r="O144" s="9" t="n"/>
+      <c r="P144" s="9" t="n"/>
       <c r="Q144" s="9" t="n"/>
       <c r="R144" s="9" t="n"/>
-      <c r="S144" s="9" t="n"/>
-      <c r="T144" s="9" t="n"/>
-      <c r="U144" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="145" s="39">
+      <c r="S144" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="145" s="36">
       <c r="A145" s="9" t="n"/>
       <c r="B145" s="9" t="n"/>
       <c r="C145" s="9" t="n"/>
@@ -3784,17 +3676,15 @@
       <c r="J145" s="9" t="n"/>
       <c r="K145" s="9" t="n"/>
       <c r="L145" s="9" t="n"/>
-      <c r="M145" s="9" t="n"/>
-      <c r="N145" s="9" t="n"/>
-      <c r="O145" s="43" t="n"/>
-      <c r="P145" s="11" t="n"/>
+      <c r="M145" s="40" t="n"/>
+      <c r="N145" s="11" t="n"/>
+      <c r="O145" s="9" t="n"/>
+      <c r="P145" s="9" t="n"/>
       <c r="Q145" s="9" t="n"/>
       <c r="R145" s="9" t="n"/>
-      <c r="S145" s="9" t="n"/>
-      <c r="T145" s="9" t="n"/>
-      <c r="U145" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="146" s="39">
+      <c r="S145" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="146" s="36">
       <c r="A146" s="9" t="n"/>
       <c r="B146" s="9" t="n"/>
       <c r="C146" s="9" t="n"/>
@@ -3807,18 +3697,16 @@
       <c r="J146" s="9" t="n"/>
       <c r="K146" s="9" t="n"/>
       <c r="L146" s="9" t="n"/>
-      <c r="M146" s="9" t="n"/>
-      <c r="N146" s="9" t="n"/>
-      <c r="O146" s="43" t="n"/>
-      <c r="P146" s="11" t="n"/>
+      <c r="M146" s="40" t="n"/>
+      <c r="N146" s="11" t="n"/>
+      <c r="O146" s="9" t="n"/>
+      <c r="P146" s="9" t="n"/>
       <c r="Q146" s="9" t="n"/>
       <c r="R146" s="9" t="n"/>
-      <c r="S146" s="9" t="n"/>
-      <c r="T146" s="9" t="n"/>
-      <c r="U146" s="11" t="n"/>
+      <c r="S146" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="39.75" r="224"/>
-    <row customFormat="1" r="266" s="51">
+    <row customFormat="1" r="266" s="48">
       <c r="A266" s="9" t="n"/>
       <c r="B266" s="9" t="n"/>
       <c r="C266" s="9" t="n"/>
@@ -3831,17 +3719,15 @@
       <c r="J266" s="9" t="n"/>
       <c r="K266" s="9" t="n"/>
       <c r="L266" s="9" t="n"/>
-      <c r="M266" s="9" t="n"/>
-      <c r="N266" s="9" t="n"/>
-      <c r="O266" s="43" t="n"/>
-      <c r="P266" s="11" t="n"/>
+      <c r="M266" s="40" t="n"/>
+      <c r="N266" s="11" t="n"/>
+      <c r="O266" s="9" t="n"/>
+      <c r="P266" s="9" t="n"/>
       <c r="Q266" s="9" t="n"/>
       <c r="R266" s="9" t="n"/>
-      <c r="S266" s="9" t="n"/>
-      <c r="T266" s="9" t="n"/>
-      <c r="U266" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="272" s="50">
+      <c r="S266" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="272" s="47">
       <c r="A272" s="9" t="n"/>
       <c r="B272" s="9" t="n"/>
       <c r="C272" s="9" t="n"/>
@@ -3854,17 +3740,15 @@
       <c r="J272" s="9" t="n"/>
       <c r="K272" s="9" t="n"/>
       <c r="L272" s="9" t="n"/>
-      <c r="M272" s="9" t="n"/>
-      <c r="N272" s="9" t="n"/>
-      <c r="O272" s="43" t="n"/>
-      <c r="P272" s="11" t="n"/>
+      <c r="M272" s="40" t="n"/>
+      <c r="N272" s="11" t="n"/>
+      <c r="O272" s="9" t="n"/>
+      <c r="P272" s="9" t="n"/>
       <c r="Q272" s="9" t="n"/>
       <c r="R272" s="9" t="n"/>
-      <c r="S272" s="9" t="n"/>
-      <c r="T272" s="9" t="n"/>
-      <c r="U272" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="273" s="50">
+      <c r="S272" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="273" s="47">
       <c r="A273" s="9" t="n"/>
       <c r="B273" s="9" t="n"/>
       <c r="C273" s="9" t="n"/>
@@ -3877,17 +3761,15 @@
       <c r="J273" s="9" t="n"/>
       <c r="K273" s="9" t="n"/>
       <c r="L273" s="9" t="n"/>
-      <c r="M273" s="9" t="n"/>
-      <c r="N273" s="9" t="n"/>
-      <c r="O273" s="43" t="n"/>
-      <c r="P273" s="11" t="n"/>
+      <c r="M273" s="40" t="n"/>
+      <c r="N273" s="11" t="n"/>
+      <c r="O273" s="9" t="n"/>
+      <c r="P273" s="9" t="n"/>
       <c r="Q273" s="9" t="n"/>
       <c r="R273" s="9" t="n"/>
-      <c r="S273" s="9" t="n"/>
-      <c r="T273" s="9" t="n"/>
-      <c r="U273" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="274" s="50">
+      <c r="S273" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="274" s="47">
       <c r="A274" s="9" t="n"/>
       <c r="B274" s="9" t="n"/>
       <c r="C274" s="9" t="n"/>
@@ -3900,17 +3782,15 @@
       <c r="J274" s="9" t="n"/>
       <c r="K274" s="9" t="n"/>
       <c r="L274" s="9" t="n"/>
-      <c r="M274" s="9" t="n"/>
-      <c r="N274" s="9" t="n"/>
-      <c r="O274" s="43" t="n"/>
-      <c r="P274" s="11" t="n"/>
+      <c r="M274" s="40" t="n"/>
+      <c r="N274" s="11" t="n"/>
+      <c r="O274" s="9" t="n"/>
+      <c r="P274" s="9" t="n"/>
       <c r="Q274" s="9" t="n"/>
       <c r="R274" s="9" t="n"/>
-      <c r="S274" s="9" t="n"/>
-      <c r="T274" s="9" t="n"/>
-      <c r="U274" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="275" s="50">
+      <c r="S274" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="275" s="47">
       <c r="A275" s="9" t="n"/>
       <c r="B275" s="9" t="n"/>
       <c r="C275" s="9" t="n"/>
@@ -3923,17 +3803,15 @@
       <c r="J275" s="9" t="n"/>
       <c r="K275" s="9" t="n"/>
       <c r="L275" s="9" t="n"/>
-      <c r="M275" s="9" t="n"/>
-      <c r="N275" s="9" t="n"/>
-      <c r="O275" s="43" t="n"/>
-      <c r="P275" s="11" t="n"/>
+      <c r="M275" s="40" t="n"/>
+      <c r="N275" s="11" t="n"/>
+      <c r="O275" s="9" t="n"/>
+      <c r="P275" s="9" t="n"/>
       <c r="Q275" s="9" t="n"/>
       <c r="R275" s="9" t="n"/>
-      <c r="S275" s="9" t="n"/>
-      <c r="T275" s="9" t="n"/>
-      <c r="U275" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="276" s="50">
+      <c r="S275" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="276" s="47">
       <c r="A276" s="9" t="n"/>
       <c r="B276" s="9" t="n"/>
       <c r="C276" s="9" t="n"/>
@@ -3946,17 +3824,15 @@
       <c r="J276" s="9" t="n"/>
       <c r="K276" s="9" t="n"/>
       <c r="L276" s="9" t="n"/>
-      <c r="M276" s="9" t="n"/>
-      <c r="N276" s="9" t="n"/>
-      <c r="O276" s="43" t="n"/>
-      <c r="P276" s="11" t="n"/>
+      <c r="M276" s="40" t="n"/>
+      <c r="N276" s="11" t="n"/>
+      <c r="O276" s="9" t="n"/>
+      <c r="P276" s="9" t="n"/>
       <c r="Q276" s="9" t="n"/>
       <c r="R276" s="9" t="n"/>
-      <c r="S276" s="9" t="n"/>
-      <c r="T276" s="9" t="n"/>
-      <c r="U276" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="277" s="50">
+      <c r="S276" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="277" s="47">
       <c r="A277" s="9" t="n"/>
       <c r="B277" s="9" t="n"/>
       <c r="C277" s="9" t="n"/>
@@ -3969,17 +3845,15 @@
       <c r="J277" s="9" t="n"/>
       <c r="K277" s="9" t="n"/>
       <c r="L277" s="9" t="n"/>
-      <c r="M277" s="9" t="n"/>
-      <c r="N277" s="9" t="n"/>
-      <c r="O277" s="43" t="n"/>
-      <c r="P277" s="11" t="n"/>
+      <c r="M277" s="40" t="n"/>
+      <c r="N277" s="11" t="n"/>
+      <c r="O277" s="9" t="n"/>
+      <c r="P277" s="9" t="n"/>
       <c r="Q277" s="9" t="n"/>
       <c r="R277" s="9" t="n"/>
-      <c r="S277" s="9" t="n"/>
-      <c r="T277" s="9" t="n"/>
-      <c r="U277" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="278" s="50">
+      <c r="S277" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="278" s="47">
       <c r="A278" s="9" t="n"/>
       <c r="B278" s="9" t="n"/>
       <c r="C278" s="9" t="n"/>
@@ -3992,17 +3866,15 @@
       <c r="J278" s="9" t="n"/>
       <c r="K278" s="9" t="n"/>
       <c r="L278" s="9" t="n"/>
-      <c r="M278" s="9" t="n"/>
-      <c r="N278" s="9" t="n"/>
-      <c r="O278" s="43" t="n"/>
-      <c r="P278" s="11" t="n"/>
+      <c r="M278" s="40" t="n"/>
+      <c r="N278" s="11" t="n"/>
+      <c r="O278" s="9" t="n"/>
+      <c r="P278" s="9" t="n"/>
       <c r="Q278" s="9" t="n"/>
       <c r="R278" s="9" t="n"/>
-      <c r="S278" s="9" t="n"/>
-      <c r="T278" s="9" t="n"/>
-      <c r="U278" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="279" s="50">
+      <c r="S278" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="279" s="47">
       <c r="A279" s="9" t="n"/>
       <c r="B279" s="9" t="n"/>
       <c r="C279" s="9" t="n"/>
@@ -4015,17 +3887,15 @@
       <c r="J279" s="9" t="n"/>
       <c r="K279" s="9" t="n"/>
       <c r="L279" s="9" t="n"/>
-      <c r="M279" s="9" t="n"/>
-      <c r="N279" s="9" t="n"/>
-      <c r="O279" s="43" t="n"/>
-      <c r="P279" s="11" t="n"/>
+      <c r="M279" s="40" t="n"/>
+      <c r="N279" s="11" t="n"/>
+      <c r="O279" s="9" t="n"/>
+      <c r="P279" s="9" t="n"/>
       <c r="Q279" s="9" t="n"/>
       <c r="R279" s="9" t="n"/>
-      <c r="S279" s="9" t="n"/>
-      <c r="T279" s="9" t="n"/>
-      <c r="U279" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="280" s="50">
+      <c r="S279" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="280" s="47">
       <c r="A280" s="9" t="n"/>
       <c r="B280" s="9" t="n"/>
       <c r="C280" s="9" t="n"/>
@@ -4038,17 +3908,15 @@
       <c r="J280" s="9" t="n"/>
       <c r="K280" s="9" t="n"/>
       <c r="L280" s="9" t="n"/>
-      <c r="M280" s="9" t="n"/>
-      <c r="N280" s="9" t="n"/>
-      <c r="O280" s="43" t="n"/>
-      <c r="P280" s="11" t="n"/>
+      <c r="M280" s="40" t="n"/>
+      <c r="N280" s="11" t="n"/>
+      <c r="O280" s="9" t="n"/>
+      <c r="P280" s="9" t="n"/>
       <c r="Q280" s="9" t="n"/>
       <c r="R280" s="9" t="n"/>
-      <c r="S280" s="9" t="n"/>
-      <c r="T280" s="9" t="n"/>
-      <c r="U280" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="281" s="50">
+      <c r="S280" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="281" s="47">
       <c r="A281" s="9" t="n"/>
       <c r="B281" s="9" t="n"/>
       <c r="C281" s="9" t="n"/>
@@ -4061,17 +3929,15 @@
       <c r="J281" s="9" t="n"/>
       <c r="K281" s="9" t="n"/>
       <c r="L281" s="9" t="n"/>
-      <c r="M281" s="9" t="n"/>
-      <c r="N281" s="9" t="n"/>
-      <c r="O281" s="43" t="n"/>
-      <c r="P281" s="11" t="n"/>
+      <c r="M281" s="40" t="n"/>
+      <c r="N281" s="11" t="n"/>
+      <c r="O281" s="9" t="n"/>
+      <c r="P281" s="9" t="n"/>
       <c r="Q281" s="9" t="n"/>
       <c r="R281" s="9" t="n"/>
-      <c r="S281" s="9" t="n"/>
-      <c r="T281" s="9" t="n"/>
-      <c r="U281" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="282" s="50">
+      <c r="S281" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="282" s="47">
       <c r="A282" s="9" t="n"/>
       <c r="B282" s="9" t="n"/>
       <c r="C282" s="9" t="n"/>
@@ -4084,17 +3950,15 @@
       <c r="J282" s="9" t="n"/>
       <c r="K282" s="9" t="n"/>
       <c r="L282" s="9" t="n"/>
-      <c r="M282" s="9" t="n"/>
-      <c r="N282" s="9" t="n"/>
-      <c r="O282" s="43" t="n"/>
-      <c r="P282" s="11" t="n"/>
+      <c r="M282" s="40" t="n"/>
+      <c r="N282" s="11" t="n"/>
+      <c r="O282" s="9" t="n"/>
+      <c r="P282" s="9" t="n"/>
       <c r="Q282" s="9" t="n"/>
       <c r="R282" s="9" t="n"/>
-      <c r="S282" s="9" t="n"/>
-      <c r="T282" s="9" t="n"/>
-      <c r="U282" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.5" r="328" s="50">
+      <c r="S282" s="11" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="34.5" r="328" s="47">
       <c r="A328" s="9" t="n"/>
       <c r="B328" s="9" t="n"/>
       <c r="C328" s="9" t="n"/>
@@ -4107,17 +3971,15 @@
       <c r="J328" s="9" t="n"/>
       <c r="K328" s="9" t="n"/>
       <c r="L328" s="9" t="n"/>
-      <c r="M328" s="9" t="n"/>
-      <c r="N328" s="9" t="n"/>
-      <c r="O328" s="43" t="n"/>
-      <c r="P328" s="11" t="n"/>
+      <c r="M328" s="40" t="n"/>
+      <c r="N328" s="11" t="n"/>
+      <c r="O328" s="9" t="n"/>
+      <c r="P328" s="9" t="n"/>
       <c r="Q328" s="9" t="n"/>
       <c r="R328" s="9" t="n"/>
-      <c r="S328" s="9" t="n"/>
-      <c r="T328" s="9" t="n"/>
-      <c r="U328" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="334" s="50">
+      <c r="S328" s="11" t="n"/>
+    </row>
+    <row customFormat="1" r="334" s="47">
       <c r="A334" s="9" t="n"/>
       <c r="B334" s="9" t="n"/>
       <c r="C334" s="9" t="n"/>
@@ -4130,35 +3992,33 @@
       <c r="J334" s="9" t="n"/>
       <c r="K334" s="9" t="n"/>
       <c r="L334" s="9" t="n"/>
-      <c r="M334" s="9" t="n"/>
-      <c r="N334" s="9" t="n"/>
-      <c r="O334" s="43" t="n"/>
-      <c r="P334" s="11" t="n"/>
+      <c r="M334" s="40" t="n"/>
+      <c r="N334" s="11" t="n"/>
+      <c r="O334" s="9" t="n"/>
+      <c r="P334" s="9" t="n"/>
       <c r="Q334" s="9" t="n"/>
       <c r="R334" s="9" t="n"/>
-      <c r="S334" s="9" t="n"/>
-      <c r="T334" s="9" t="n"/>
-      <c r="U334" s="11" t="n"/>
+      <c r="S334" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:U11"/>
+  <autoFilter ref="A11:S11"/>
   <mergeCells count="8">
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="P12:P108">
+  <conditionalFormatting sqref="N12:N108">
     <cfRule dxfId="0" priority="201" stopIfTrue="1" type="expression">
-      <formula>AND(NOT(ISBLANK(P12)),O12="range")</formula>
+      <formula>AND(NOT(ISBLANK(N12)),M12="range")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="O12:O108" type="list">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="M12:M108" type="list">
       <formula1>"range,datablock"</formula1>
     </dataValidation>
   </dataValidations>

--- a/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
+++ b/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
@@ -999,7 +999,11 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n"/>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>BB-No=0123456789</t>
+        </is>
+      </c>
       <c r="C2" s="13" t="n"/>
       <c r="D2" s="13" t="n"/>
       <c r="E2" s="13" t="n"/>
@@ -1076,7 +1080,11 @@
           <t>Responsible</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>Oscar Gonzalez</t>
+        </is>
+      </c>
       <c r="C5" s="18" t="n"/>
       <c r="D5" s="18" t="n"/>
       <c r="E5" s="18" t="n"/>

--- a/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
+++ b/program/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95650.xlsx
@@ -1432,21 +1432,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TestData_08</t>
+          <t>TestData_07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12346</v>
-      </c>
-      <c r="C18" t="n">
-        <v>87</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>12345</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1458,198 +1455,92 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>HOLA</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>JULIO</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
+          <t>description=- Component: Test
+- REPROG info: To be evaluated.</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TestData_09</t>
+          <t>TestData_08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12347</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="inlineStr">
+        <v>12346</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>BB96</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>ADIOS</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>RUBEN</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
+          <t>description=- Component: TST Data
+- REPROG info: undefined</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TestData_10</t>
+          <t>TestData_09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12348</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="inlineStr">
+        <v>12347</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>ee_range</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>BB75</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>:(</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>JULIO Y RUBEN</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6</v>
+          <t>description=- Component: TST Data
+- REPROG info: tbd</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TestData_11</t>
+          <t>TestData_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12349</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="inlineStr">
+        <v>12348</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>datablock</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>BB89</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>JEJ</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9</v>
+          <t>ee_range</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>description=- Component: TST
+- REPROG info: t.b.d</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1661,136 +1552,100 @@
       <c r="B22" t="n">
         <v>12349</v>
       </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>datablock</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>BB89</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>JEJ</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>9</v>
+          <t>ee_range</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>description=- Component: TST
+- REPROG info: use case REPROG must be set</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DUMMY_TestModuleCnt</t>
+          <t>TestData_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31416</v>
-      </c>
-      <c r="I23" t="inlineStr">
+        <v>12349</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ee_erase</t>
+          <t>ee_range</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>description=- Component: TST
+- REPROG info: use case REPROG must be set</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>DUMMY_TestModuleCnt</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>31416</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>ee_erase</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>ASDFClockTower</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>111255</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>ee_datablock</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>description=- Component: ASDF
 - REPROG info: use case REPROG must not be set.
 - REPROG info: In certain cases there are two comments of this type.
 There are also strings up to 160 characters per row, only on description fields and usually is not only one row. Like this example but a little bit longer.</t>
         </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>TestData_07</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C25" t="n">
-        <v>91</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>ee_range</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
